--- a/raw_data/cp-2018-Table-2.xlsx
+++ b/raw_data/cp-2018-Table-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpender\Desktop\CP Individual Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethaker/Desktop/Project1/project-1/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9EF10C-5806-48B2-B999-A20B02B1D2C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C7A1C-37FA-3845-8E14-53B1FD4E2E58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14205" xr2:uid="{BB726992-1388-435F-A41B-BBA631A668F4}"/>
+    <workbookView xWindow="13800" yWindow="460" windowWidth="20020" windowHeight="16620" xr2:uid="{BB726992-1388-435F-A41B-BBA631A668F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="1" r:id="rId1"/>
@@ -48,17 +48,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>TABLE 2. Average Tuition and Fees and Room and Board (Enrollment-Weighted) in Current Dollars and in 2018 Dollars, 1971-72 to 2018-19</t>
   </si>
@@ -231,12 +226,6 @@
     <t>18-19</t>
   </si>
   <si>
-    <t>Tuition and Fees in Current Dollars</t>
-  </si>
-  <si>
-    <t>Tuition and Fees and Room and Board in Current Dollars</t>
-  </si>
-  <si>
     <t>NOTE: Average tuition and fee prices reflect in-district charges for public two-year institutions and in-state charges for public four-year institutions.</t>
   </si>
   <si>
@@ -325,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -450,15 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -473,37 +453,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -549,43 +502,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -598,6 +514,42 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -51871,4672 +51823,2938 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="15" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10" style="43" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16" style="43" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="44" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="43" customWidth="1"/>
-    <col min="11" max="11" width="11" style="44" customWidth="1"/>
-    <col min="245" max="245" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16" style="21" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="11" style="22" customWidth="1"/>
+    <col min="245" max="245" width="10.5" customWidth="1"/>
     <col min="246" max="246" width="15" customWidth="1"/>
-    <col min="247" max="247" width="10.28515625" customWidth="1"/>
+    <col min="247" max="247" width="10.33203125" customWidth="1"/>
     <col min="248" max="248" width="10" customWidth="1"/>
-    <col min="249" max="249" width="9.85546875" customWidth="1"/>
-    <col min="250" max="250" width="9.140625" customWidth="1"/>
-    <col min="251" max="251" width="10.42578125" customWidth="1"/>
+    <col min="249" max="249" width="9.83203125" customWidth="1"/>
+    <col min="250" max="250" width="9.1640625" customWidth="1"/>
+    <col min="251" max="251" width="10.5" customWidth="1"/>
     <col min="252" max="252" width="16" customWidth="1"/>
-    <col min="253" max="253" width="10.7109375" customWidth="1"/>
-    <col min="254" max="254" width="9.7109375" customWidth="1"/>
+    <col min="253" max="253" width="10.6640625" customWidth="1"/>
+    <col min="254" max="254" width="9.6640625" customWidth="1"/>
     <col min="255" max="255" width="11" customWidth="1"/>
-    <col min="501" max="501" width="10.42578125" customWidth="1"/>
+    <col min="501" max="501" width="10.5" customWidth="1"/>
     <col min="502" max="502" width="15" customWidth="1"/>
-    <col min="503" max="503" width="10.28515625" customWidth="1"/>
+    <col min="503" max="503" width="10.33203125" customWidth="1"/>
     <col min="504" max="504" width="10" customWidth="1"/>
-    <col min="505" max="505" width="9.85546875" customWidth="1"/>
-    <col min="506" max="506" width="9.140625" customWidth="1"/>
-    <col min="507" max="507" width="10.42578125" customWidth="1"/>
+    <col min="505" max="505" width="9.83203125" customWidth="1"/>
+    <col min="506" max="506" width="9.1640625" customWidth="1"/>
+    <col min="507" max="507" width="10.5" customWidth="1"/>
     <col min="508" max="508" width="16" customWidth="1"/>
-    <col min="509" max="509" width="10.7109375" customWidth="1"/>
-    <col min="510" max="510" width="9.7109375" customWidth="1"/>
+    <col min="509" max="509" width="10.6640625" customWidth="1"/>
+    <col min="510" max="510" width="9.6640625" customWidth="1"/>
     <col min="511" max="511" width="11" customWidth="1"/>
-    <col min="757" max="757" width="10.42578125" customWidth="1"/>
+    <col min="757" max="757" width="10.5" customWidth="1"/>
     <col min="758" max="758" width="15" customWidth="1"/>
-    <col min="759" max="759" width="10.28515625" customWidth="1"/>
+    <col min="759" max="759" width="10.33203125" customWidth="1"/>
     <col min="760" max="760" width="10" customWidth="1"/>
-    <col min="761" max="761" width="9.85546875" customWidth="1"/>
-    <col min="762" max="762" width="9.140625" customWidth="1"/>
-    <col min="763" max="763" width="10.42578125" customWidth="1"/>
+    <col min="761" max="761" width="9.83203125" customWidth="1"/>
+    <col min="762" max="762" width="9.1640625" customWidth="1"/>
+    <col min="763" max="763" width="10.5" customWidth="1"/>
     <col min="764" max="764" width="16" customWidth="1"/>
-    <col min="765" max="765" width="10.7109375" customWidth="1"/>
-    <col min="766" max="766" width="9.7109375" customWidth="1"/>
+    <col min="765" max="765" width="10.6640625" customWidth="1"/>
+    <col min="766" max="766" width="9.6640625" customWidth="1"/>
     <col min="767" max="767" width="11" customWidth="1"/>
-    <col min="1013" max="1013" width="10.42578125" customWidth="1"/>
+    <col min="1013" max="1013" width="10.5" customWidth="1"/>
     <col min="1014" max="1014" width="15" customWidth="1"/>
-    <col min="1015" max="1015" width="10.28515625" customWidth="1"/>
+    <col min="1015" max="1015" width="10.33203125" customWidth="1"/>
     <col min="1016" max="1016" width="10" customWidth="1"/>
-    <col min="1017" max="1017" width="9.85546875" customWidth="1"/>
-    <col min="1018" max="1018" width="9.140625" customWidth="1"/>
-    <col min="1019" max="1019" width="10.42578125" customWidth="1"/>
+    <col min="1017" max="1017" width="9.83203125" customWidth="1"/>
+    <col min="1018" max="1018" width="9.1640625" customWidth="1"/>
+    <col min="1019" max="1019" width="10.5" customWidth="1"/>
     <col min="1020" max="1020" width="16" customWidth="1"/>
-    <col min="1021" max="1021" width="10.7109375" customWidth="1"/>
-    <col min="1022" max="1022" width="9.7109375" customWidth="1"/>
+    <col min="1021" max="1021" width="10.6640625" customWidth="1"/>
+    <col min="1022" max="1022" width="9.6640625" customWidth="1"/>
     <col min="1023" max="1023" width="11" customWidth="1"/>
-    <col min="1269" max="1269" width="10.42578125" customWidth="1"/>
+    <col min="1269" max="1269" width="10.5" customWidth="1"/>
     <col min="1270" max="1270" width="15" customWidth="1"/>
-    <col min="1271" max="1271" width="10.28515625" customWidth="1"/>
+    <col min="1271" max="1271" width="10.33203125" customWidth="1"/>
     <col min="1272" max="1272" width="10" customWidth="1"/>
-    <col min="1273" max="1273" width="9.85546875" customWidth="1"/>
-    <col min="1274" max="1274" width="9.140625" customWidth="1"/>
-    <col min="1275" max="1275" width="10.42578125" customWidth="1"/>
+    <col min="1273" max="1273" width="9.83203125" customWidth="1"/>
+    <col min="1274" max="1274" width="9.1640625" customWidth="1"/>
+    <col min="1275" max="1275" width="10.5" customWidth="1"/>
     <col min="1276" max="1276" width="16" customWidth="1"/>
-    <col min="1277" max="1277" width="10.7109375" customWidth="1"/>
-    <col min="1278" max="1278" width="9.7109375" customWidth="1"/>
+    <col min="1277" max="1277" width="10.6640625" customWidth="1"/>
+    <col min="1278" max="1278" width="9.6640625" customWidth="1"/>
     <col min="1279" max="1279" width="11" customWidth="1"/>
-    <col min="1525" max="1525" width="10.42578125" customWidth="1"/>
+    <col min="1525" max="1525" width="10.5" customWidth="1"/>
     <col min="1526" max="1526" width="15" customWidth="1"/>
-    <col min="1527" max="1527" width="10.28515625" customWidth="1"/>
+    <col min="1527" max="1527" width="10.33203125" customWidth="1"/>
     <col min="1528" max="1528" width="10" customWidth="1"/>
-    <col min="1529" max="1529" width="9.85546875" customWidth="1"/>
-    <col min="1530" max="1530" width="9.140625" customWidth="1"/>
-    <col min="1531" max="1531" width="10.42578125" customWidth="1"/>
+    <col min="1529" max="1529" width="9.83203125" customWidth="1"/>
+    <col min="1530" max="1530" width="9.1640625" customWidth="1"/>
+    <col min="1531" max="1531" width="10.5" customWidth="1"/>
     <col min="1532" max="1532" width="16" customWidth="1"/>
-    <col min="1533" max="1533" width="10.7109375" customWidth="1"/>
-    <col min="1534" max="1534" width="9.7109375" customWidth="1"/>
+    <col min="1533" max="1533" width="10.6640625" customWidth="1"/>
+    <col min="1534" max="1534" width="9.6640625" customWidth="1"/>
     <col min="1535" max="1535" width="11" customWidth="1"/>
-    <col min="1781" max="1781" width="10.42578125" customWidth="1"/>
+    <col min="1781" max="1781" width="10.5" customWidth="1"/>
     <col min="1782" max="1782" width="15" customWidth="1"/>
-    <col min="1783" max="1783" width="10.28515625" customWidth="1"/>
+    <col min="1783" max="1783" width="10.33203125" customWidth="1"/>
     <col min="1784" max="1784" width="10" customWidth="1"/>
-    <col min="1785" max="1785" width="9.85546875" customWidth="1"/>
-    <col min="1786" max="1786" width="9.140625" customWidth="1"/>
-    <col min="1787" max="1787" width="10.42578125" customWidth="1"/>
+    <col min="1785" max="1785" width="9.83203125" customWidth="1"/>
+    <col min="1786" max="1786" width="9.1640625" customWidth="1"/>
+    <col min="1787" max="1787" width="10.5" customWidth="1"/>
     <col min="1788" max="1788" width="16" customWidth="1"/>
-    <col min="1789" max="1789" width="10.7109375" customWidth="1"/>
-    <col min="1790" max="1790" width="9.7109375" customWidth="1"/>
+    <col min="1789" max="1789" width="10.6640625" customWidth="1"/>
+    <col min="1790" max="1790" width="9.6640625" customWidth="1"/>
     <col min="1791" max="1791" width="11" customWidth="1"/>
-    <col min="2037" max="2037" width="10.42578125" customWidth="1"/>
+    <col min="2037" max="2037" width="10.5" customWidth="1"/>
     <col min="2038" max="2038" width="15" customWidth="1"/>
-    <col min="2039" max="2039" width="10.28515625" customWidth="1"/>
+    <col min="2039" max="2039" width="10.33203125" customWidth="1"/>
     <col min="2040" max="2040" width="10" customWidth="1"/>
-    <col min="2041" max="2041" width="9.85546875" customWidth="1"/>
-    <col min="2042" max="2042" width="9.140625" customWidth="1"/>
-    <col min="2043" max="2043" width="10.42578125" customWidth="1"/>
+    <col min="2041" max="2041" width="9.83203125" customWidth="1"/>
+    <col min="2042" max="2042" width="9.1640625" customWidth="1"/>
+    <col min="2043" max="2043" width="10.5" customWidth="1"/>
     <col min="2044" max="2044" width="16" customWidth="1"/>
-    <col min="2045" max="2045" width="10.7109375" customWidth="1"/>
-    <col min="2046" max="2046" width="9.7109375" customWidth="1"/>
+    <col min="2045" max="2045" width="10.6640625" customWidth="1"/>
+    <col min="2046" max="2046" width="9.6640625" customWidth="1"/>
     <col min="2047" max="2047" width="11" customWidth="1"/>
-    <col min="2293" max="2293" width="10.42578125" customWidth="1"/>
+    <col min="2293" max="2293" width="10.5" customWidth="1"/>
     <col min="2294" max="2294" width="15" customWidth="1"/>
-    <col min="2295" max="2295" width="10.28515625" customWidth="1"/>
+    <col min="2295" max="2295" width="10.33203125" customWidth="1"/>
     <col min="2296" max="2296" width="10" customWidth="1"/>
-    <col min="2297" max="2297" width="9.85546875" customWidth="1"/>
-    <col min="2298" max="2298" width="9.140625" customWidth="1"/>
-    <col min="2299" max="2299" width="10.42578125" customWidth="1"/>
+    <col min="2297" max="2297" width="9.83203125" customWidth="1"/>
+    <col min="2298" max="2298" width="9.1640625" customWidth="1"/>
+    <col min="2299" max="2299" width="10.5" customWidth="1"/>
     <col min="2300" max="2300" width="16" customWidth="1"/>
-    <col min="2301" max="2301" width="10.7109375" customWidth="1"/>
-    <col min="2302" max="2302" width="9.7109375" customWidth="1"/>
+    <col min="2301" max="2301" width="10.6640625" customWidth="1"/>
+    <col min="2302" max="2302" width="9.6640625" customWidth="1"/>
     <col min="2303" max="2303" width="11" customWidth="1"/>
-    <col min="2549" max="2549" width="10.42578125" customWidth="1"/>
+    <col min="2549" max="2549" width="10.5" customWidth="1"/>
     <col min="2550" max="2550" width="15" customWidth="1"/>
-    <col min="2551" max="2551" width="10.28515625" customWidth="1"/>
+    <col min="2551" max="2551" width="10.33203125" customWidth="1"/>
     <col min="2552" max="2552" width="10" customWidth="1"/>
-    <col min="2553" max="2553" width="9.85546875" customWidth="1"/>
-    <col min="2554" max="2554" width="9.140625" customWidth="1"/>
-    <col min="2555" max="2555" width="10.42578125" customWidth="1"/>
+    <col min="2553" max="2553" width="9.83203125" customWidth="1"/>
+    <col min="2554" max="2554" width="9.1640625" customWidth="1"/>
+    <col min="2555" max="2555" width="10.5" customWidth="1"/>
     <col min="2556" max="2556" width="16" customWidth="1"/>
-    <col min="2557" max="2557" width="10.7109375" customWidth="1"/>
-    <col min="2558" max="2558" width="9.7109375" customWidth="1"/>
+    <col min="2557" max="2557" width="10.6640625" customWidth="1"/>
+    <col min="2558" max="2558" width="9.6640625" customWidth="1"/>
     <col min="2559" max="2559" width="11" customWidth="1"/>
-    <col min="2805" max="2805" width="10.42578125" customWidth="1"/>
+    <col min="2805" max="2805" width="10.5" customWidth="1"/>
     <col min="2806" max="2806" width="15" customWidth="1"/>
-    <col min="2807" max="2807" width="10.28515625" customWidth="1"/>
+    <col min="2807" max="2807" width="10.33203125" customWidth="1"/>
     <col min="2808" max="2808" width="10" customWidth="1"/>
-    <col min="2809" max="2809" width="9.85546875" customWidth="1"/>
-    <col min="2810" max="2810" width="9.140625" customWidth="1"/>
-    <col min="2811" max="2811" width="10.42578125" customWidth="1"/>
+    <col min="2809" max="2809" width="9.83203125" customWidth="1"/>
+    <col min="2810" max="2810" width="9.1640625" customWidth="1"/>
+    <col min="2811" max="2811" width="10.5" customWidth="1"/>
     <col min="2812" max="2812" width="16" customWidth="1"/>
-    <col min="2813" max="2813" width="10.7109375" customWidth="1"/>
-    <col min="2814" max="2814" width="9.7109375" customWidth="1"/>
+    <col min="2813" max="2813" width="10.6640625" customWidth="1"/>
+    <col min="2814" max="2814" width="9.6640625" customWidth="1"/>
     <col min="2815" max="2815" width="11" customWidth="1"/>
-    <col min="3061" max="3061" width="10.42578125" customWidth="1"/>
+    <col min="3061" max="3061" width="10.5" customWidth="1"/>
     <col min="3062" max="3062" width="15" customWidth="1"/>
-    <col min="3063" max="3063" width="10.28515625" customWidth="1"/>
+    <col min="3063" max="3063" width="10.33203125" customWidth="1"/>
     <col min="3064" max="3064" width="10" customWidth="1"/>
-    <col min="3065" max="3065" width="9.85546875" customWidth="1"/>
-    <col min="3066" max="3066" width="9.140625" customWidth="1"/>
-    <col min="3067" max="3067" width="10.42578125" customWidth="1"/>
+    <col min="3065" max="3065" width="9.83203125" customWidth="1"/>
+    <col min="3066" max="3066" width="9.1640625" customWidth="1"/>
+    <col min="3067" max="3067" width="10.5" customWidth="1"/>
     <col min="3068" max="3068" width="16" customWidth="1"/>
-    <col min="3069" max="3069" width="10.7109375" customWidth="1"/>
-    <col min="3070" max="3070" width="9.7109375" customWidth="1"/>
+    <col min="3069" max="3069" width="10.6640625" customWidth="1"/>
+    <col min="3070" max="3070" width="9.6640625" customWidth="1"/>
     <col min="3071" max="3071" width="11" customWidth="1"/>
-    <col min="3317" max="3317" width="10.42578125" customWidth="1"/>
+    <col min="3317" max="3317" width="10.5" customWidth="1"/>
     <col min="3318" max="3318" width="15" customWidth="1"/>
-    <col min="3319" max="3319" width="10.28515625" customWidth="1"/>
+    <col min="3319" max="3319" width="10.33203125" customWidth="1"/>
     <col min="3320" max="3320" width="10" customWidth="1"/>
-    <col min="3321" max="3321" width="9.85546875" customWidth="1"/>
-    <col min="3322" max="3322" width="9.140625" customWidth="1"/>
-    <col min="3323" max="3323" width="10.42578125" customWidth="1"/>
+    <col min="3321" max="3321" width="9.83203125" customWidth="1"/>
+    <col min="3322" max="3322" width="9.1640625" customWidth="1"/>
+    <col min="3323" max="3323" width="10.5" customWidth="1"/>
     <col min="3324" max="3324" width="16" customWidth="1"/>
-    <col min="3325" max="3325" width="10.7109375" customWidth="1"/>
-    <col min="3326" max="3326" width="9.7109375" customWidth="1"/>
+    <col min="3325" max="3325" width="10.6640625" customWidth="1"/>
+    <col min="3326" max="3326" width="9.6640625" customWidth="1"/>
     <col min="3327" max="3327" width="11" customWidth="1"/>
-    <col min="3573" max="3573" width="10.42578125" customWidth="1"/>
+    <col min="3573" max="3573" width="10.5" customWidth="1"/>
     <col min="3574" max="3574" width="15" customWidth="1"/>
-    <col min="3575" max="3575" width="10.28515625" customWidth="1"/>
+    <col min="3575" max="3575" width="10.33203125" customWidth="1"/>
     <col min="3576" max="3576" width="10" customWidth="1"/>
-    <col min="3577" max="3577" width="9.85546875" customWidth="1"/>
-    <col min="3578" max="3578" width="9.140625" customWidth="1"/>
-    <col min="3579" max="3579" width="10.42578125" customWidth="1"/>
+    <col min="3577" max="3577" width="9.83203125" customWidth="1"/>
+    <col min="3578" max="3578" width="9.1640625" customWidth="1"/>
+    <col min="3579" max="3579" width="10.5" customWidth="1"/>
     <col min="3580" max="3580" width="16" customWidth="1"/>
-    <col min="3581" max="3581" width="10.7109375" customWidth="1"/>
-    <col min="3582" max="3582" width="9.7109375" customWidth="1"/>
+    <col min="3581" max="3581" width="10.6640625" customWidth="1"/>
+    <col min="3582" max="3582" width="9.6640625" customWidth="1"/>
     <col min="3583" max="3583" width="11" customWidth="1"/>
-    <col min="3829" max="3829" width="10.42578125" customWidth="1"/>
+    <col min="3829" max="3829" width="10.5" customWidth="1"/>
     <col min="3830" max="3830" width="15" customWidth="1"/>
-    <col min="3831" max="3831" width="10.28515625" customWidth="1"/>
+    <col min="3831" max="3831" width="10.33203125" customWidth="1"/>
     <col min="3832" max="3832" width="10" customWidth="1"/>
-    <col min="3833" max="3833" width="9.85546875" customWidth="1"/>
-    <col min="3834" max="3834" width="9.140625" customWidth="1"/>
-    <col min="3835" max="3835" width="10.42578125" customWidth="1"/>
+    <col min="3833" max="3833" width="9.83203125" customWidth="1"/>
+    <col min="3834" max="3834" width="9.1640625" customWidth="1"/>
+    <col min="3835" max="3835" width="10.5" customWidth="1"/>
     <col min="3836" max="3836" width="16" customWidth="1"/>
-    <col min="3837" max="3837" width="10.7109375" customWidth="1"/>
-    <col min="3838" max="3838" width="9.7109375" customWidth="1"/>
+    <col min="3837" max="3837" width="10.6640625" customWidth="1"/>
+    <col min="3838" max="3838" width="9.6640625" customWidth="1"/>
     <col min="3839" max="3839" width="11" customWidth="1"/>
-    <col min="4085" max="4085" width="10.42578125" customWidth="1"/>
+    <col min="4085" max="4085" width="10.5" customWidth="1"/>
     <col min="4086" max="4086" width="15" customWidth="1"/>
-    <col min="4087" max="4087" width="10.28515625" customWidth="1"/>
+    <col min="4087" max="4087" width="10.33203125" customWidth="1"/>
     <col min="4088" max="4088" width="10" customWidth="1"/>
-    <col min="4089" max="4089" width="9.85546875" customWidth="1"/>
-    <col min="4090" max="4090" width="9.140625" customWidth="1"/>
-    <col min="4091" max="4091" width="10.42578125" customWidth="1"/>
+    <col min="4089" max="4089" width="9.83203125" customWidth="1"/>
+    <col min="4090" max="4090" width="9.1640625" customWidth="1"/>
+    <col min="4091" max="4091" width="10.5" customWidth="1"/>
     <col min="4092" max="4092" width="16" customWidth="1"/>
-    <col min="4093" max="4093" width="10.7109375" customWidth="1"/>
-    <col min="4094" max="4094" width="9.7109375" customWidth="1"/>
+    <col min="4093" max="4093" width="10.6640625" customWidth="1"/>
+    <col min="4094" max="4094" width="9.6640625" customWidth="1"/>
     <col min="4095" max="4095" width="11" customWidth="1"/>
-    <col min="4341" max="4341" width="10.42578125" customWidth="1"/>
+    <col min="4341" max="4341" width="10.5" customWidth="1"/>
     <col min="4342" max="4342" width="15" customWidth="1"/>
-    <col min="4343" max="4343" width="10.28515625" customWidth="1"/>
+    <col min="4343" max="4343" width="10.33203125" customWidth="1"/>
     <col min="4344" max="4344" width="10" customWidth="1"/>
-    <col min="4345" max="4345" width="9.85546875" customWidth="1"/>
-    <col min="4346" max="4346" width="9.140625" customWidth="1"/>
-    <col min="4347" max="4347" width="10.42578125" customWidth="1"/>
+    <col min="4345" max="4345" width="9.83203125" customWidth="1"/>
+    <col min="4346" max="4346" width="9.1640625" customWidth="1"/>
+    <col min="4347" max="4347" width="10.5" customWidth="1"/>
     <col min="4348" max="4348" width="16" customWidth="1"/>
-    <col min="4349" max="4349" width="10.7109375" customWidth="1"/>
-    <col min="4350" max="4350" width="9.7109375" customWidth="1"/>
+    <col min="4349" max="4349" width="10.6640625" customWidth="1"/>
+    <col min="4350" max="4350" width="9.6640625" customWidth="1"/>
     <col min="4351" max="4351" width="11" customWidth="1"/>
-    <col min="4597" max="4597" width="10.42578125" customWidth="1"/>
+    <col min="4597" max="4597" width="10.5" customWidth="1"/>
     <col min="4598" max="4598" width="15" customWidth="1"/>
-    <col min="4599" max="4599" width="10.28515625" customWidth="1"/>
+    <col min="4599" max="4599" width="10.33203125" customWidth="1"/>
     <col min="4600" max="4600" width="10" customWidth="1"/>
-    <col min="4601" max="4601" width="9.85546875" customWidth="1"/>
-    <col min="4602" max="4602" width="9.140625" customWidth="1"/>
-    <col min="4603" max="4603" width="10.42578125" customWidth="1"/>
+    <col min="4601" max="4601" width="9.83203125" customWidth="1"/>
+    <col min="4602" max="4602" width="9.1640625" customWidth="1"/>
+    <col min="4603" max="4603" width="10.5" customWidth="1"/>
     <col min="4604" max="4604" width="16" customWidth="1"/>
-    <col min="4605" max="4605" width="10.7109375" customWidth="1"/>
-    <col min="4606" max="4606" width="9.7109375" customWidth="1"/>
+    <col min="4605" max="4605" width="10.6640625" customWidth="1"/>
+    <col min="4606" max="4606" width="9.6640625" customWidth="1"/>
     <col min="4607" max="4607" width="11" customWidth="1"/>
-    <col min="4853" max="4853" width="10.42578125" customWidth="1"/>
+    <col min="4853" max="4853" width="10.5" customWidth="1"/>
     <col min="4854" max="4854" width="15" customWidth="1"/>
-    <col min="4855" max="4855" width="10.28515625" customWidth="1"/>
+    <col min="4855" max="4855" width="10.33203125" customWidth="1"/>
     <col min="4856" max="4856" width="10" customWidth="1"/>
-    <col min="4857" max="4857" width="9.85546875" customWidth="1"/>
-    <col min="4858" max="4858" width="9.140625" customWidth="1"/>
-    <col min="4859" max="4859" width="10.42578125" customWidth="1"/>
+    <col min="4857" max="4857" width="9.83203125" customWidth="1"/>
+    <col min="4858" max="4858" width="9.1640625" customWidth="1"/>
+    <col min="4859" max="4859" width="10.5" customWidth="1"/>
     <col min="4860" max="4860" width="16" customWidth="1"/>
-    <col min="4861" max="4861" width="10.7109375" customWidth="1"/>
-    <col min="4862" max="4862" width="9.7109375" customWidth="1"/>
+    <col min="4861" max="4861" width="10.6640625" customWidth="1"/>
+    <col min="4862" max="4862" width="9.6640625" customWidth="1"/>
     <col min="4863" max="4863" width="11" customWidth="1"/>
-    <col min="5109" max="5109" width="10.42578125" customWidth="1"/>
+    <col min="5109" max="5109" width="10.5" customWidth="1"/>
     <col min="5110" max="5110" width="15" customWidth="1"/>
-    <col min="5111" max="5111" width="10.28515625" customWidth="1"/>
+    <col min="5111" max="5111" width="10.33203125" customWidth="1"/>
     <col min="5112" max="5112" width="10" customWidth="1"/>
-    <col min="5113" max="5113" width="9.85546875" customWidth="1"/>
-    <col min="5114" max="5114" width="9.140625" customWidth="1"/>
-    <col min="5115" max="5115" width="10.42578125" customWidth="1"/>
+    <col min="5113" max="5113" width="9.83203125" customWidth="1"/>
+    <col min="5114" max="5114" width="9.1640625" customWidth="1"/>
+    <col min="5115" max="5115" width="10.5" customWidth="1"/>
     <col min="5116" max="5116" width="16" customWidth="1"/>
-    <col min="5117" max="5117" width="10.7109375" customWidth="1"/>
-    <col min="5118" max="5118" width="9.7109375" customWidth="1"/>
+    <col min="5117" max="5117" width="10.6640625" customWidth="1"/>
+    <col min="5118" max="5118" width="9.6640625" customWidth="1"/>
     <col min="5119" max="5119" width="11" customWidth="1"/>
-    <col min="5365" max="5365" width="10.42578125" customWidth="1"/>
+    <col min="5365" max="5365" width="10.5" customWidth="1"/>
     <col min="5366" max="5366" width="15" customWidth="1"/>
-    <col min="5367" max="5367" width="10.28515625" customWidth="1"/>
+    <col min="5367" max="5367" width="10.33203125" customWidth="1"/>
     <col min="5368" max="5368" width="10" customWidth="1"/>
-    <col min="5369" max="5369" width="9.85546875" customWidth="1"/>
-    <col min="5370" max="5370" width="9.140625" customWidth="1"/>
-    <col min="5371" max="5371" width="10.42578125" customWidth="1"/>
+    <col min="5369" max="5369" width="9.83203125" customWidth="1"/>
+    <col min="5370" max="5370" width="9.1640625" customWidth="1"/>
+    <col min="5371" max="5371" width="10.5" customWidth="1"/>
     <col min="5372" max="5372" width="16" customWidth="1"/>
-    <col min="5373" max="5373" width="10.7109375" customWidth="1"/>
-    <col min="5374" max="5374" width="9.7109375" customWidth="1"/>
+    <col min="5373" max="5373" width="10.6640625" customWidth="1"/>
+    <col min="5374" max="5374" width="9.6640625" customWidth="1"/>
     <col min="5375" max="5375" width="11" customWidth="1"/>
-    <col min="5621" max="5621" width="10.42578125" customWidth="1"/>
+    <col min="5621" max="5621" width="10.5" customWidth="1"/>
     <col min="5622" max="5622" width="15" customWidth="1"/>
-    <col min="5623" max="5623" width="10.28515625" customWidth="1"/>
+    <col min="5623" max="5623" width="10.33203125" customWidth="1"/>
     <col min="5624" max="5624" width="10" customWidth="1"/>
-    <col min="5625" max="5625" width="9.85546875" customWidth="1"/>
-    <col min="5626" max="5626" width="9.140625" customWidth="1"/>
-    <col min="5627" max="5627" width="10.42578125" customWidth="1"/>
+    <col min="5625" max="5625" width="9.83203125" customWidth="1"/>
+    <col min="5626" max="5626" width="9.1640625" customWidth="1"/>
+    <col min="5627" max="5627" width="10.5" customWidth="1"/>
     <col min="5628" max="5628" width="16" customWidth="1"/>
-    <col min="5629" max="5629" width="10.7109375" customWidth="1"/>
-    <col min="5630" max="5630" width="9.7109375" customWidth="1"/>
+    <col min="5629" max="5629" width="10.6640625" customWidth="1"/>
+    <col min="5630" max="5630" width="9.6640625" customWidth="1"/>
     <col min="5631" max="5631" width="11" customWidth="1"/>
-    <col min="5877" max="5877" width="10.42578125" customWidth="1"/>
+    <col min="5877" max="5877" width="10.5" customWidth="1"/>
     <col min="5878" max="5878" width="15" customWidth="1"/>
-    <col min="5879" max="5879" width="10.28515625" customWidth="1"/>
+    <col min="5879" max="5879" width="10.33203125" customWidth="1"/>
     <col min="5880" max="5880" width="10" customWidth="1"/>
-    <col min="5881" max="5881" width="9.85546875" customWidth="1"/>
-    <col min="5882" max="5882" width="9.140625" customWidth="1"/>
-    <col min="5883" max="5883" width="10.42578125" customWidth="1"/>
+    <col min="5881" max="5881" width="9.83203125" customWidth="1"/>
+    <col min="5882" max="5882" width="9.1640625" customWidth="1"/>
+    <col min="5883" max="5883" width="10.5" customWidth="1"/>
     <col min="5884" max="5884" width="16" customWidth="1"/>
-    <col min="5885" max="5885" width="10.7109375" customWidth="1"/>
-    <col min="5886" max="5886" width="9.7109375" customWidth="1"/>
+    <col min="5885" max="5885" width="10.6640625" customWidth="1"/>
+    <col min="5886" max="5886" width="9.6640625" customWidth="1"/>
     <col min="5887" max="5887" width="11" customWidth="1"/>
-    <col min="6133" max="6133" width="10.42578125" customWidth="1"/>
+    <col min="6133" max="6133" width="10.5" customWidth="1"/>
     <col min="6134" max="6134" width="15" customWidth="1"/>
-    <col min="6135" max="6135" width="10.28515625" customWidth="1"/>
+    <col min="6135" max="6135" width="10.33203125" customWidth="1"/>
     <col min="6136" max="6136" width="10" customWidth="1"/>
-    <col min="6137" max="6137" width="9.85546875" customWidth="1"/>
-    <col min="6138" max="6138" width="9.140625" customWidth="1"/>
-    <col min="6139" max="6139" width="10.42578125" customWidth="1"/>
+    <col min="6137" max="6137" width="9.83203125" customWidth="1"/>
+    <col min="6138" max="6138" width="9.1640625" customWidth="1"/>
+    <col min="6139" max="6139" width="10.5" customWidth="1"/>
     <col min="6140" max="6140" width="16" customWidth="1"/>
-    <col min="6141" max="6141" width="10.7109375" customWidth="1"/>
-    <col min="6142" max="6142" width="9.7109375" customWidth="1"/>
+    <col min="6141" max="6141" width="10.6640625" customWidth="1"/>
+    <col min="6142" max="6142" width="9.6640625" customWidth="1"/>
     <col min="6143" max="6143" width="11" customWidth="1"/>
-    <col min="6389" max="6389" width="10.42578125" customWidth="1"/>
+    <col min="6389" max="6389" width="10.5" customWidth="1"/>
     <col min="6390" max="6390" width="15" customWidth="1"/>
-    <col min="6391" max="6391" width="10.28515625" customWidth="1"/>
+    <col min="6391" max="6391" width="10.33203125" customWidth="1"/>
     <col min="6392" max="6392" width="10" customWidth="1"/>
-    <col min="6393" max="6393" width="9.85546875" customWidth="1"/>
-    <col min="6394" max="6394" width="9.140625" customWidth="1"/>
-    <col min="6395" max="6395" width="10.42578125" customWidth="1"/>
+    <col min="6393" max="6393" width="9.83203125" customWidth="1"/>
+    <col min="6394" max="6394" width="9.1640625" customWidth="1"/>
+    <col min="6395" max="6395" width="10.5" customWidth="1"/>
     <col min="6396" max="6396" width="16" customWidth="1"/>
-    <col min="6397" max="6397" width="10.7109375" customWidth="1"/>
-    <col min="6398" max="6398" width="9.7109375" customWidth="1"/>
+    <col min="6397" max="6397" width="10.6640625" customWidth="1"/>
+    <col min="6398" max="6398" width="9.6640625" customWidth="1"/>
     <col min="6399" max="6399" width="11" customWidth="1"/>
-    <col min="6645" max="6645" width="10.42578125" customWidth="1"/>
+    <col min="6645" max="6645" width="10.5" customWidth="1"/>
     <col min="6646" max="6646" width="15" customWidth="1"/>
-    <col min="6647" max="6647" width="10.28515625" customWidth="1"/>
+    <col min="6647" max="6647" width="10.33203125" customWidth="1"/>
     <col min="6648" max="6648" width="10" customWidth="1"/>
-    <col min="6649" max="6649" width="9.85546875" customWidth="1"/>
-    <col min="6650" max="6650" width="9.140625" customWidth="1"/>
-    <col min="6651" max="6651" width="10.42578125" customWidth="1"/>
+    <col min="6649" max="6649" width="9.83203125" customWidth="1"/>
+    <col min="6650" max="6650" width="9.1640625" customWidth="1"/>
+    <col min="6651" max="6651" width="10.5" customWidth="1"/>
     <col min="6652" max="6652" width="16" customWidth="1"/>
-    <col min="6653" max="6653" width="10.7109375" customWidth="1"/>
-    <col min="6654" max="6654" width="9.7109375" customWidth="1"/>
+    <col min="6653" max="6653" width="10.6640625" customWidth="1"/>
+    <col min="6654" max="6654" width="9.6640625" customWidth="1"/>
     <col min="6655" max="6655" width="11" customWidth="1"/>
-    <col min="6901" max="6901" width="10.42578125" customWidth="1"/>
+    <col min="6901" max="6901" width="10.5" customWidth="1"/>
     <col min="6902" max="6902" width="15" customWidth="1"/>
-    <col min="6903" max="6903" width="10.28515625" customWidth="1"/>
+    <col min="6903" max="6903" width="10.33203125" customWidth="1"/>
     <col min="6904" max="6904" width="10" customWidth="1"/>
-    <col min="6905" max="6905" width="9.85546875" customWidth="1"/>
-    <col min="6906" max="6906" width="9.140625" customWidth="1"/>
-    <col min="6907" max="6907" width="10.42578125" customWidth="1"/>
+    <col min="6905" max="6905" width="9.83203125" customWidth="1"/>
+    <col min="6906" max="6906" width="9.1640625" customWidth="1"/>
+    <col min="6907" max="6907" width="10.5" customWidth="1"/>
     <col min="6908" max="6908" width="16" customWidth="1"/>
-    <col min="6909" max="6909" width="10.7109375" customWidth="1"/>
-    <col min="6910" max="6910" width="9.7109375" customWidth="1"/>
+    <col min="6909" max="6909" width="10.6640625" customWidth="1"/>
+    <col min="6910" max="6910" width="9.6640625" customWidth="1"/>
     <col min="6911" max="6911" width="11" customWidth="1"/>
-    <col min="7157" max="7157" width="10.42578125" customWidth="1"/>
+    <col min="7157" max="7157" width="10.5" customWidth="1"/>
     <col min="7158" max="7158" width="15" customWidth="1"/>
-    <col min="7159" max="7159" width="10.28515625" customWidth="1"/>
+    <col min="7159" max="7159" width="10.33203125" customWidth="1"/>
     <col min="7160" max="7160" width="10" customWidth="1"/>
-    <col min="7161" max="7161" width="9.85546875" customWidth="1"/>
-    <col min="7162" max="7162" width="9.140625" customWidth="1"/>
-    <col min="7163" max="7163" width="10.42578125" customWidth="1"/>
+    <col min="7161" max="7161" width="9.83203125" customWidth="1"/>
+    <col min="7162" max="7162" width="9.1640625" customWidth="1"/>
+    <col min="7163" max="7163" width="10.5" customWidth="1"/>
     <col min="7164" max="7164" width="16" customWidth="1"/>
-    <col min="7165" max="7165" width="10.7109375" customWidth="1"/>
-    <col min="7166" max="7166" width="9.7109375" customWidth="1"/>
+    <col min="7165" max="7165" width="10.6640625" customWidth="1"/>
+    <col min="7166" max="7166" width="9.6640625" customWidth="1"/>
     <col min="7167" max="7167" width="11" customWidth="1"/>
-    <col min="7413" max="7413" width="10.42578125" customWidth="1"/>
+    <col min="7413" max="7413" width="10.5" customWidth="1"/>
     <col min="7414" max="7414" width="15" customWidth="1"/>
-    <col min="7415" max="7415" width="10.28515625" customWidth="1"/>
+    <col min="7415" max="7415" width="10.33203125" customWidth="1"/>
     <col min="7416" max="7416" width="10" customWidth="1"/>
-    <col min="7417" max="7417" width="9.85546875" customWidth="1"/>
-    <col min="7418" max="7418" width="9.140625" customWidth="1"/>
-    <col min="7419" max="7419" width="10.42578125" customWidth="1"/>
+    <col min="7417" max="7417" width="9.83203125" customWidth="1"/>
+    <col min="7418" max="7418" width="9.1640625" customWidth="1"/>
+    <col min="7419" max="7419" width="10.5" customWidth="1"/>
     <col min="7420" max="7420" width="16" customWidth="1"/>
-    <col min="7421" max="7421" width="10.7109375" customWidth="1"/>
-    <col min="7422" max="7422" width="9.7109375" customWidth="1"/>
+    <col min="7421" max="7421" width="10.6640625" customWidth="1"/>
+    <col min="7422" max="7422" width="9.6640625" customWidth="1"/>
     <col min="7423" max="7423" width="11" customWidth="1"/>
-    <col min="7669" max="7669" width="10.42578125" customWidth="1"/>
+    <col min="7669" max="7669" width="10.5" customWidth="1"/>
     <col min="7670" max="7670" width="15" customWidth="1"/>
-    <col min="7671" max="7671" width="10.28515625" customWidth="1"/>
+    <col min="7671" max="7671" width="10.33203125" customWidth="1"/>
     <col min="7672" max="7672" width="10" customWidth="1"/>
-    <col min="7673" max="7673" width="9.85546875" customWidth="1"/>
-    <col min="7674" max="7674" width="9.140625" customWidth="1"/>
-    <col min="7675" max="7675" width="10.42578125" customWidth="1"/>
+    <col min="7673" max="7673" width="9.83203125" customWidth="1"/>
+    <col min="7674" max="7674" width="9.1640625" customWidth="1"/>
+    <col min="7675" max="7675" width="10.5" customWidth="1"/>
     <col min="7676" max="7676" width="16" customWidth="1"/>
-    <col min="7677" max="7677" width="10.7109375" customWidth="1"/>
-    <col min="7678" max="7678" width="9.7109375" customWidth="1"/>
+    <col min="7677" max="7677" width="10.6640625" customWidth="1"/>
+    <col min="7678" max="7678" width="9.6640625" customWidth="1"/>
     <col min="7679" max="7679" width="11" customWidth="1"/>
-    <col min="7925" max="7925" width="10.42578125" customWidth="1"/>
+    <col min="7925" max="7925" width="10.5" customWidth="1"/>
     <col min="7926" max="7926" width="15" customWidth="1"/>
-    <col min="7927" max="7927" width="10.28515625" customWidth="1"/>
+    <col min="7927" max="7927" width="10.33203125" customWidth="1"/>
     <col min="7928" max="7928" width="10" customWidth="1"/>
-    <col min="7929" max="7929" width="9.85546875" customWidth="1"/>
-    <col min="7930" max="7930" width="9.140625" customWidth="1"/>
-    <col min="7931" max="7931" width="10.42578125" customWidth="1"/>
+    <col min="7929" max="7929" width="9.83203125" customWidth="1"/>
+    <col min="7930" max="7930" width="9.1640625" customWidth="1"/>
+    <col min="7931" max="7931" width="10.5" customWidth="1"/>
     <col min="7932" max="7932" width="16" customWidth="1"/>
-    <col min="7933" max="7933" width="10.7109375" customWidth="1"/>
-    <col min="7934" max="7934" width="9.7109375" customWidth="1"/>
+    <col min="7933" max="7933" width="10.6640625" customWidth="1"/>
+    <col min="7934" max="7934" width="9.6640625" customWidth="1"/>
     <col min="7935" max="7935" width="11" customWidth="1"/>
-    <col min="8181" max="8181" width="10.42578125" customWidth="1"/>
+    <col min="8181" max="8181" width="10.5" customWidth="1"/>
     <col min="8182" max="8182" width="15" customWidth="1"/>
-    <col min="8183" max="8183" width="10.28515625" customWidth="1"/>
+    <col min="8183" max="8183" width="10.33203125" customWidth="1"/>
     <col min="8184" max="8184" width="10" customWidth="1"/>
-    <col min="8185" max="8185" width="9.85546875" customWidth="1"/>
-    <col min="8186" max="8186" width="9.140625" customWidth="1"/>
-    <col min="8187" max="8187" width="10.42578125" customWidth="1"/>
+    <col min="8185" max="8185" width="9.83203125" customWidth="1"/>
+    <col min="8186" max="8186" width="9.1640625" customWidth="1"/>
+    <col min="8187" max="8187" width="10.5" customWidth="1"/>
     <col min="8188" max="8188" width="16" customWidth="1"/>
-    <col min="8189" max="8189" width="10.7109375" customWidth="1"/>
-    <col min="8190" max="8190" width="9.7109375" customWidth="1"/>
+    <col min="8189" max="8189" width="10.6640625" customWidth="1"/>
+    <col min="8190" max="8190" width="9.6640625" customWidth="1"/>
     <col min="8191" max="8191" width="11" customWidth="1"/>
-    <col min="8437" max="8437" width="10.42578125" customWidth="1"/>
+    <col min="8437" max="8437" width="10.5" customWidth="1"/>
     <col min="8438" max="8438" width="15" customWidth="1"/>
-    <col min="8439" max="8439" width="10.28515625" customWidth="1"/>
+    <col min="8439" max="8439" width="10.33203125" customWidth="1"/>
     <col min="8440" max="8440" width="10" customWidth="1"/>
-    <col min="8441" max="8441" width="9.85546875" customWidth="1"/>
-    <col min="8442" max="8442" width="9.140625" customWidth="1"/>
-    <col min="8443" max="8443" width="10.42578125" customWidth="1"/>
+    <col min="8441" max="8441" width="9.83203125" customWidth="1"/>
+    <col min="8442" max="8442" width="9.1640625" customWidth="1"/>
+    <col min="8443" max="8443" width="10.5" customWidth="1"/>
     <col min="8444" max="8444" width="16" customWidth="1"/>
-    <col min="8445" max="8445" width="10.7109375" customWidth="1"/>
-    <col min="8446" max="8446" width="9.7109375" customWidth="1"/>
+    <col min="8445" max="8445" width="10.6640625" customWidth="1"/>
+    <col min="8446" max="8446" width="9.6640625" customWidth="1"/>
     <col min="8447" max="8447" width="11" customWidth="1"/>
-    <col min="8693" max="8693" width="10.42578125" customWidth="1"/>
+    <col min="8693" max="8693" width="10.5" customWidth="1"/>
     <col min="8694" max="8694" width="15" customWidth="1"/>
-    <col min="8695" max="8695" width="10.28515625" customWidth="1"/>
+    <col min="8695" max="8695" width="10.33203125" customWidth="1"/>
     <col min="8696" max="8696" width="10" customWidth="1"/>
-    <col min="8697" max="8697" width="9.85546875" customWidth="1"/>
-    <col min="8698" max="8698" width="9.140625" customWidth="1"/>
-    <col min="8699" max="8699" width="10.42578125" customWidth="1"/>
+    <col min="8697" max="8697" width="9.83203125" customWidth="1"/>
+    <col min="8698" max="8698" width="9.1640625" customWidth="1"/>
+    <col min="8699" max="8699" width="10.5" customWidth="1"/>
     <col min="8700" max="8700" width="16" customWidth="1"/>
-    <col min="8701" max="8701" width="10.7109375" customWidth="1"/>
-    <col min="8702" max="8702" width="9.7109375" customWidth="1"/>
+    <col min="8701" max="8701" width="10.6640625" customWidth="1"/>
+    <col min="8702" max="8702" width="9.6640625" customWidth="1"/>
     <col min="8703" max="8703" width="11" customWidth="1"/>
-    <col min="8949" max="8949" width="10.42578125" customWidth="1"/>
+    <col min="8949" max="8949" width="10.5" customWidth="1"/>
     <col min="8950" max="8950" width="15" customWidth="1"/>
-    <col min="8951" max="8951" width="10.28515625" customWidth="1"/>
+    <col min="8951" max="8951" width="10.33203125" customWidth="1"/>
     <col min="8952" max="8952" width="10" customWidth="1"/>
-    <col min="8953" max="8953" width="9.85546875" customWidth="1"/>
-    <col min="8954" max="8954" width="9.140625" customWidth="1"/>
-    <col min="8955" max="8955" width="10.42578125" customWidth="1"/>
+    <col min="8953" max="8953" width="9.83203125" customWidth="1"/>
+    <col min="8954" max="8954" width="9.1640625" customWidth="1"/>
+    <col min="8955" max="8955" width="10.5" customWidth="1"/>
     <col min="8956" max="8956" width="16" customWidth="1"/>
-    <col min="8957" max="8957" width="10.7109375" customWidth="1"/>
-    <col min="8958" max="8958" width="9.7109375" customWidth="1"/>
+    <col min="8957" max="8957" width="10.6640625" customWidth="1"/>
+    <col min="8958" max="8958" width="9.6640625" customWidth="1"/>
     <col min="8959" max="8959" width="11" customWidth="1"/>
-    <col min="9205" max="9205" width="10.42578125" customWidth="1"/>
+    <col min="9205" max="9205" width="10.5" customWidth="1"/>
     <col min="9206" max="9206" width="15" customWidth="1"/>
-    <col min="9207" max="9207" width="10.28515625" customWidth="1"/>
+    <col min="9207" max="9207" width="10.33203125" customWidth="1"/>
     <col min="9208" max="9208" width="10" customWidth="1"/>
-    <col min="9209" max="9209" width="9.85546875" customWidth="1"/>
-    <col min="9210" max="9210" width="9.140625" customWidth="1"/>
-    <col min="9211" max="9211" width="10.42578125" customWidth="1"/>
+    <col min="9209" max="9209" width="9.83203125" customWidth="1"/>
+    <col min="9210" max="9210" width="9.1640625" customWidth="1"/>
+    <col min="9211" max="9211" width="10.5" customWidth="1"/>
     <col min="9212" max="9212" width="16" customWidth="1"/>
-    <col min="9213" max="9213" width="10.7109375" customWidth="1"/>
-    <col min="9214" max="9214" width="9.7109375" customWidth="1"/>
+    <col min="9213" max="9213" width="10.6640625" customWidth="1"/>
+    <col min="9214" max="9214" width="9.6640625" customWidth="1"/>
     <col min="9215" max="9215" width="11" customWidth="1"/>
-    <col min="9461" max="9461" width="10.42578125" customWidth="1"/>
+    <col min="9461" max="9461" width="10.5" customWidth="1"/>
     <col min="9462" max="9462" width="15" customWidth="1"/>
-    <col min="9463" max="9463" width="10.28515625" customWidth="1"/>
+    <col min="9463" max="9463" width="10.33203125" customWidth="1"/>
     <col min="9464" max="9464" width="10" customWidth="1"/>
-    <col min="9465" max="9465" width="9.85546875" customWidth="1"/>
-    <col min="9466" max="9466" width="9.140625" customWidth="1"/>
-    <col min="9467" max="9467" width="10.42578125" customWidth="1"/>
+    <col min="9465" max="9465" width="9.83203125" customWidth="1"/>
+    <col min="9466" max="9466" width="9.1640625" customWidth="1"/>
+    <col min="9467" max="9467" width="10.5" customWidth="1"/>
     <col min="9468" max="9468" width="16" customWidth="1"/>
-    <col min="9469" max="9469" width="10.7109375" customWidth="1"/>
-    <col min="9470" max="9470" width="9.7109375" customWidth="1"/>
+    <col min="9469" max="9469" width="10.6640625" customWidth="1"/>
+    <col min="9470" max="9470" width="9.6640625" customWidth="1"/>
     <col min="9471" max="9471" width="11" customWidth="1"/>
-    <col min="9717" max="9717" width="10.42578125" customWidth="1"/>
+    <col min="9717" max="9717" width="10.5" customWidth="1"/>
     <col min="9718" max="9718" width="15" customWidth="1"/>
-    <col min="9719" max="9719" width="10.28515625" customWidth="1"/>
+    <col min="9719" max="9719" width="10.33203125" customWidth="1"/>
     <col min="9720" max="9720" width="10" customWidth="1"/>
-    <col min="9721" max="9721" width="9.85546875" customWidth="1"/>
-    <col min="9722" max="9722" width="9.140625" customWidth="1"/>
-    <col min="9723" max="9723" width="10.42578125" customWidth="1"/>
+    <col min="9721" max="9721" width="9.83203125" customWidth="1"/>
+    <col min="9722" max="9722" width="9.1640625" customWidth="1"/>
+    <col min="9723" max="9723" width="10.5" customWidth="1"/>
     <col min="9724" max="9724" width="16" customWidth="1"/>
-    <col min="9725" max="9725" width="10.7109375" customWidth="1"/>
-    <col min="9726" max="9726" width="9.7109375" customWidth="1"/>
+    <col min="9725" max="9725" width="10.6640625" customWidth="1"/>
+    <col min="9726" max="9726" width="9.6640625" customWidth="1"/>
     <col min="9727" max="9727" width="11" customWidth="1"/>
-    <col min="9973" max="9973" width="10.42578125" customWidth="1"/>
+    <col min="9973" max="9973" width="10.5" customWidth="1"/>
     <col min="9974" max="9974" width="15" customWidth="1"/>
-    <col min="9975" max="9975" width="10.28515625" customWidth="1"/>
+    <col min="9975" max="9975" width="10.33203125" customWidth="1"/>
     <col min="9976" max="9976" width="10" customWidth="1"/>
-    <col min="9977" max="9977" width="9.85546875" customWidth="1"/>
-    <col min="9978" max="9978" width="9.140625" customWidth="1"/>
-    <col min="9979" max="9979" width="10.42578125" customWidth="1"/>
+    <col min="9977" max="9977" width="9.83203125" customWidth="1"/>
+    <col min="9978" max="9978" width="9.1640625" customWidth="1"/>
+    <col min="9979" max="9979" width="10.5" customWidth="1"/>
     <col min="9980" max="9980" width="16" customWidth="1"/>
-    <col min="9981" max="9981" width="10.7109375" customWidth="1"/>
-    <col min="9982" max="9982" width="9.7109375" customWidth="1"/>
+    <col min="9981" max="9981" width="10.6640625" customWidth="1"/>
+    <col min="9982" max="9982" width="9.6640625" customWidth="1"/>
     <col min="9983" max="9983" width="11" customWidth="1"/>
-    <col min="10229" max="10229" width="10.42578125" customWidth="1"/>
+    <col min="10229" max="10229" width="10.5" customWidth="1"/>
     <col min="10230" max="10230" width="15" customWidth="1"/>
-    <col min="10231" max="10231" width="10.28515625" customWidth="1"/>
+    <col min="10231" max="10231" width="10.33203125" customWidth="1"/>
     <col min="10232" max="10232" width="10" customWidth="1"/>
-    <col min="10233" max="10233" width="9.85546875" customWidth="1"/>
-    <col min="10234" max="10234" width="9.140625" customWidth="1"/>
-    <col min="10235" max="10235" width="10.42578125" customWidth="1"/>
+    <col min="10233" max="10233" width="9.83203125" customWidth="1"/>
+    <col min="10234" max="10234" width="9.1640625" customWidth="1"/>
+    <col min="10235" max="10235" width="10.5" customWidth="1"/>
     <col min="10236" max="10236" width="16" customWidth="1"/>
-    <col min="10237" max="10237" width="10.7109375" customWidth="1"/>
-    <col min="10238" max="10238" width="9.7109375" customWidth="1"/>
+    <col min="10237" max="10237" width="10.6640625" customWidth="1"/>
+    <col min="10238" max="10238" width="9.6640625" customWidth="1"/>
     <col min="10239" max="10239" width="11" customWidth="1"/>
-    <col min="10485" max="10485" width="10.42578125" customWidth="1"/>
+    <col min="10485" max="10485" width="10.5" customWidth="1"/>
     <col min="10486" max="10486" width="15" customWidth="1"/>
-    <col min="10487" max="10487" width="10.28515625" customWidth="1"/>
+    <col min="10487" max="10487" width="10.33203125" customWidth="1"/>
     <col min="10488" max="10488" width="10" customWidth="1"/>
-    <col min="10489" max="10489" width="9.85546875" customWidth="1"/>
-    <col min="10490" max="10490" width="9.140625" customWidth="1"/>
-    <col min="10491" max="10491" width="10.42578125" customWidth="1"/>
+    <col min="10489" max="10489" width="9.83203125" customWidth="1"/>
+    <col min="10490" max="10490" width="9.1640625" customWidth="1"/>
+    <col min="10491" max="10491" width="10.5" customWidth="1"/>
     <col min="10492" max="10492" width="16" customWidth="1"/>
-    <col min="10493" max="10493" width="10.7109375" customWidth="1"/>
-    <col min="10494" max="10494" width="9.7109375" customWidth="1"/>
+    <col min="10493" max="10493" width="10.6640625" customWidth="1"/>
+    <col min="10494" max="10494" width="9.6640625" customWidth="1"/>
     <col min="10495" max="10495" width="11" customWidth="1"/>
-    <col min="10741" max="10741" width="10.42578125" customWidth="1"/>
+    <col min="10741" max="10741" width="10.5" customWidth="1"/>
     <col min="10742" max="10742" width="15" customWidth="1"/>
-    <col min="10743" max="10743" width="10.28515625" customWidth="1"/>
+    <col min="10743" max="10743" width="10.33203125" customWidth="1"/>
     <col min="10744" max="10744" width="10" customWidth="1"/>
-    <col min="10745" max="10745" width="9.85546875" customWidth="1"/>
-    <col min="10746" max="10746" width="9.140625" customWidth="1"/>
-    <col min="10747" max="10747" width="10.42578125" customWidth="1"/>
+    <col min="10745" max="10745" width="9.83203125" customWidth="1"/>
+    <col min="10746" max="10746" width="9.1640625" customWidth="1"/>
+    <col min="10747" max="10747" width="10.5" customWidth="1"/>
     <col min="10748" max="10748" width="16" customWidth="1"/>
-    <col min="10749" max="10749" width="10.7109375" customWidth="1"/>
-    <col min="10750" max="10750" width="9.7109375" customWidth="1"/>
+    <col min="10749" max="10749" width="10.6640625" customWidth="1"/>
+    <col min="10750" max="10750" width="9.6640625" customWidth="1"/>
     <col min="10751" max="10751" width="11" customWidth="1"/>
-    <col min="10997" max="10997" width="10.42578125" customWidth="1"/>
+    <col min="10997" max="10997" width="10.5" customWidth="1"/>
     <col min="10998" max="10998" width="15" customWidth="1"/>
-    <col min="10999" max="10999" width="10.28515625" customWidth="1"/>
+    <col min="10999" max="10999" width="10.33203125" customWidth="1"/>
     <col min="11000" max="11000" width="10" customWidth="1"/>
-    <col min="11001" max="11001" width="9.85546875" customWidth="1"/>
-    <col min="11002" max="11002" width="9.140625" customWidth="1"/>
-    <col min="11003" max="11003" width="10.42578125" customWidth="1"/>
+    <col min="11001" max="11001" width="9.83203125" customWidth="1"/>
+    <col min="11002" max="11002" width="9.1640625" customWidth="1"/>
+    <col min="11003" max="11003" width="10.5" customWidth="1"/>
     <col min="11004" max="11004" width="16" customWidth="1"/>
-    <col min="11005" max="11005" width="10.7109375" customWidth="1"/>
-    <col min="11006" max="11006" width="9.7109375" customWidth="1"/>
+    <col min="11005" max="11005" width="10.6640625" customWidth="1"/>
+    <col min="11006" max="11006" width="9.6640625" customWidth="1"/>
     <col min="11007" max="11007" width="11" customWidth="1"/>
-    <col min="11253" max="11253" width="10.42578125" customWidth="1"/>
+    <col min="11253" max="11253" width="10.5" customWidth="1"/>
     <col min="11254" max="11254" width="15" customWidth="1"/>
-    <col min="11255" max="11255" width="10.28515625" customWidth="1"/>
+    <col min="11255" max="11255" width="10.33203125" customWidth="1"/>
     <col min="11256" max="11256" width="10" customWidth="1"/>
-    <col min="11257" max="11257" width="9.85546875" customWidth="1"/>
-    <col min="11258" max="11258" width="9.140625" customWidth="1"/>
-    <col min="11259" max="11259" width="10.42578125" customWidth="1"/>
+    <col min="11257" max="11257" width="9.83203125" customWidth="1"/>
+    <col min="11258" max="11258" width="9.1640625" customWidth="1"/>
+    <col min="11259" max="11259" width="10.5" customWidth="1"/>
     <col min="11260" max="11260" width="16" customWidth="1"/>
-    <col min="11261" max="11261" width="10.7109375" customWidth="1"/>
-    <col min="11262" max="11262" width="9.7109375" customWidth="1"/>
+    <col min="11261" max="11261" width="10.6640625" customWidth="1"/>
+    <col min="11262" max="11262" width="9.6640625" customWidth="1"/>
     <col min="11263" max="11263" width="11" customWidth="1"/>
-    <col min="11509" max="11509" width="10.42578125" customWidth="1"/>
+    <col min="11509" max="11509" width="10.5" customWidth="1"/>
     <col min="11510" max="11510" width="15" customWidth="1"/>
-    <col min="11511" max="11511" width="10.28515625" customWidth="1"/>
+    <col min="11511" max="11511" width="10.33203125" customWidth="1"/>
     <col min="11512" max="11512" width="10" customWidth="1"/>
-    <col min="11513" max="11513" width="9.85546875" customWidth="1"/>
-    <col min="11514" max="11514" width="9.140625" customWidth="1"/>
-    <col min="11515" max="11515" width="10.42578125" customWidth="1"/>
+    <col min="11513" max="11513" width="9.83203125" customWidth="1"/>
+    <col min="11514" max="11514" width="9.1640625" customWidth="1"/>
+    <col min="11515" max="11515" width="10.5" customWidth="1"/>
     <col min="11516" max="11516" width="16" customWidth="1"/>
-    <col min="11517" max="11517" width="10.7109375" customWidth="1"/>
-    <col min="11518" max="11518" width="9.7109375" customWidth="1"/>
+    <col min="11517" max="11517" width="10.6640625" customWidth="1"/>
+    <col min="11518" max="11518" width="9.6640625" customWidth="1"/>
     <col min="11519" max="11519" width="11" customWidth="1"/>
-    <col min="11765" max="11765" width="10.42578125" customWidth="1"/>
+    <col min="11765" max="11765" width="10.5" customWidth="1"/>
     <col min="11766" max="11766" width="15" customWidth="1"/>
-    <col min="11767" max="11767" width="10.28515625" customWidth="1"/>
+    <col min="11767" max="11767" width="10.33203125" customWidth="1"/>
     <col min="11768" max="11768" width="10" customWidth="1"/>
-    <col min="11769" max="11769" width="9.85546875" customWidth="1"/>
-    <col min="11770" max="11770" width="9.140625" customWidth="1"/>
-    <col min="11771" max="11771" width="10.42578125" customWidth="1"/>
+    <col min="11769" max="11769" width="9.83203125" customWidth="1"/>
+    <col min="11770" max="11770" width="9.1640625" customWidth="1"/>
+    <col min="11771" max="11771" width="10.5" customWidth="1"/>
     <col min="11772" max="11772" width="16" customWidth="1"/>
-    <col min="11773" max="11773" width="10.7109375" customWidth="1"/>
-    <col min="11774" max="11774" width="9.7109375" customWidth="1"/>
+    <col min="11773" max="11773" width="10.6640625" customWidth="1"/>
+    <col min="11774" max="11774" width="9.6640625" customWidth="1"/>
     <col min="11775" max="11775" width="11" customWidth="1"/>
-    <col min="12021" max="12021" width="10.42578125" customWidth="1"/>
+    <col min="12021" max="12021" width="10.5" customWidth="1"/>
     <col min="12022" max="12022" width="15" customWidth="1"/>
-    <col min="12023" max="12023" width="10.28515625" customWidth="1"/>
+    <col min="12023" max="12023" width="10.33203125" customWidth="1"/>
     <col min="12024" max="12024" width="10" customWidth="1"/>
-    <col min="12025" max="12025" width="9.85546875" customWidth="1"/>
-    <col min="12026" max="12026" width="9.140625" customWidth="1"/>
-    <col min="12027" max="12027" width="10.42578125" customWidth="1"/>
+    <col min="12025" max="12025" width="9.83203125" customWidth="1"/>
+    <col min="12026" max="12026" width="9.1640625" customWidth="1"/>
+    <col min="12027" max="12027" width="10.5" customWidth="1"/>
     <col min="12028" max="12028" width="16" customWidth="1"/>
-    <col min="12029" max="12029" width="10.7109375" customWidth="1"/>
-    <col min="12030" max="12030" width="9.7109375" customWidth="1"/>
+    <col min="12029" max="12029" width="10.6640625" customWidth="1"/>
+    <col min="12030" max="12030" width="9.6640625" customWidth="1"/>
     <col min="12031" max="12031" width="11" customWidth="1"/>
-    <col min="12277" max="12277" width="10.42578125" customWidth="1"/>
+    <col min="12277" max="12277" width="10.5" customWidth="1"/>
     <col min="12278" max="12278" width="15" customWidth="1"/>
-    <col min="12279" max="12279" width="10.28515625" customWidth="1"/>
+    <col min="12279" max="12279" width="10.33203125" customWidth="1"/>
     <col min="12280" max="12280" width="10" customWidth="1"/>
-    <col min="12281" max="12281" width="9.85546875" customWidth="1"/>
-    <col min="12282" max="12282" width="9.140625" customWidth="1"/>
-    <col min="12283" max="12283" width="10.42578125" customWidth="1"/>
+    <col min="12281" max="12281" width="9.83203125" customWidth="1"/>
+    <col min="12282" max="12282" width="9.1640625" customWidth="1"/>
+    <col min="12283" max="12283" width="10.5" customWidth="1"/>
     <col min="12284" max="12284" width="16" customWidth="1"/>
-    <col min="12285" max="12285" width="10.7109375" customWidth="1"/>
-    <col min="12286" max="12286" width="9.7109375" customWidth="1"/>
+    <col min="12285" max="12285" width="10.6640625" customWidth="1"/>
+    <col min="12286" max="12286" width="9.6640625" customWidth="1"/>
     <col min="12287" max="12287" width="11" customWidth="1"/>
-    <col min="12533" max="12533" width="10.42578125" customWidth="1"/>
+    <col min="12533" max="12533" width="10.5" customWidth="1"/>
     <col min="12534" max="12534" width="15" customWidth="1"/>
-    <col min="12535" max="12535" width="10.28515625" customWidth="1"/>
+    <col min="12535" max="12535" width="10.33203125" customWidth="1"/>
     <col min="12536" max="12536" width="10" customWidth="1"/>
-    <col min="12537" max="12537" width="9.85546875" customWidth="1"/>
-    <col min="12538" max="12538" width="9.140625" customWidth="1"/>
-    <col min="12539" max="12539" width="10.42578125" customWidth="1"/>
+    <col min="12537" max="12537" width="9.83203125" customWidth="1"/>
+    <col min="12538" max="12538" width="9.1640625" customWidth="1"/>
+    <col min="12539" max="12539" width="10.5" customWidth="1"/>
     <col min="12540" max="12540" width="16" customWidth="1"/>
-    <col min="12541" max="12541" width="10.7109375" customWidth="1"/>
-    <col min="12542" max="12542" width="9.7109375" customWidth="1"/>
+    <col min="12541" max="12541" width="10.6640625" customWidth="1"/>
+    <col min="12542" max="12542" width="9.6640625" customWidth="1"/>
     <col min="12543" max="12543" width="11" customWidth="1"/>
-    <col min="12789" max="12789" width="10.42578125" customWidth="1"/>
+    <col min="12789" max="12789" width="10.5" customWidth="1"/>
     <col min="12790" max="12790" width="15" customWidth="1"/>
-    <col min="12791" max="12791" width="10.28515625" customWidth="1"/>
+    <col min="12791" max="12791" width="10.33203125" customWidth="1"/>
     <col min="12792" max="12792" width="10" customWidth="1"/>
-    <col min="12793" max="12793" width="9.85546875" customWidth="1"/>
-    <col min="12794" max="12794" width="9.140625" customWidth="1"/>
-    <col min="12795" max="12795" width="10.42578125" customWidth="1"/>
+    <col min="12793" max="12793" width="9.83203125" customWidth="1"/>
+    <col min="12794" max="12794" width="9.1640625" customWidth="1"/>
+    <col min="12795" max="12795" width="10.5" customWidth="1"/>
     <col min="12796" max="12796" width="16" customWidth="1"/>
-    <col min="12797" max="12797" width="10.7109375" customWidth="1"/>
-    <col min="12798" max="12798" width="9.7109375" customWidth="1"/>
+    <col min="12797" max="12797" width="10.6640625" customWidth="1"/>
+    <col min="12798" max="12798" width="9.6640625" customWidth="1"/>
     <col min="12799" max="12799" width="11" customWidth="1"/>
-    <col min="13045" max="13045" width="10.42578125" customWidth="1"/>
+    <col min="13045" max="13045" width="10.5" customWidth="1"/>
     <col min="13046" max="13046" width="15" customWidth="1"/>
-    <col min="13047" max="13047" width="10.28515625" customWidth="1"/>
+    <col min="13047" max="13047" width="10.33203125" customWidth="1"/>
     <col min="13048" max="13048" width="10" customWidth="1"/>
-    <col min="13049" max="13049" width="9.85546875" customWidth="1"/>
-    <col min="13050" max="13050" width="9.140625" customWidth="1"/>
-    <col min="13051" max="13051" width="10.42578125" customWidth="1"/>
+    <col min="13049" max="13049" width="9.83203125" customWidth="1"/>
+    <col min="13050" max="13050" width="9.1640625" customWidth="1"/>
+    <col min="13051" max="13051" width="10.5" customWidth="1"/>
     <col min="13052" max="13052" width="16" customWidth="1"/>
-    <col min="13053" max="13053" width="10.7109375" customWidth="1"/>
-    <col min="13054" max="13054" width="9.7109375" customWidth="1"/>
+    <col min="13053" max="13053" width="10.6640625" customWidth="1"/>
+    <col min="13054" max="13054" width="9.6640625" customWidth="1"/>
     <col min="13055" max="13055" width="11" customWidth="1"/>
-    <col min="13301" max="13301" width="10.42578125" customWidth="1"/>
+    <col min="13301" max="13301" width="10.5" customWidth="1"/>
     <col min="13302" max="13302" width="15" customWidth="1"/>
-    <col min="13303" max="13303" width="10.28515625" customWidth="1"/>
+    <col min="13303" max="13303" width="10.33203125" customWidth="1"/>
     <col min="13304" max="13304" width="10" customWidth="1"/>
-    <col min="13305" max="13305" width="9.85546875" customWidth="1"/>
-    <col min="13306" max="13306" width="9.140625" customWidth="1"/>
-    <col min="13307" max="13307" width="10.42578125" customWidth="1"/>
+    <col min="13305" max="13305" width="9.83203125" customWidth="1"/>
+    <col min="13306" max="13306" width="9.1640625" customWidth="1"/>
+    <col min="13307" max="13307" width="10.5" customWidth="1"/>
     <col min="13308" max="13308" width="16" customWidth="1"/>
-    <col min="13309" max="13309" width="10.7109375" customWidth="1"/>
-    <col min="13310" max="13310" width="9.7109375" customWidth="1"/>
+    <col min="13309" max="13309" width="10.6640625" customWidth="1"/>
+    <col min="13310" max="13310" width="9.6640625" customWidth="1"/>
     <col min="13311" max="13311" width="11" customWidth="1"/>
-    <col min="13557" max="13557" width="10.42578125" customWidth="1"/>
+    <col min="13557" max="13557" width="10.5" customWidth="1"/>
     <col min="13558" max="13558" width="15" customWidth="1"/>
-    <col min="13559" max="13559" width="10.28515625" customWidth="1"/>
+    <col min="13559" max="13559" width="10.33203125" customWidth="1"/>
     <col min="13560" max="13560" width="10" customWidth="1"/>
-    <col min="13561" max="13561" width="9.85546875" customWidth="1"/>
-    <col min="13562" max="13562" width="9.140625" customWidth="1"/>
-    <col min="13563" max="13563" width="10.42578125" customWidth="1"/>
+    <col min="13561" max="13561" width="9.83203125" customWidth="1"/>
+    <col min="13562" max="13562" width="9.1640625" customWidth="1"/>
+    <col min="13563" max="13563" width="10.5" customWidth="1"/>
     <col min="13564" max="13564" width="16" customWidth="1"/>
-    <col min="13565" max="13565" width="10.7109375" customWidth="1"/>
-    <col min="13566" max="13566" width="9.7109375" customWidth="1"/>
+    <col min="13565" max="13565" width="10.6640625" customWidth="1"/>
+    <col min="13566" max="13566" width="9.6640625" customWidth="1"/>
     <col min="13567" max="13567" width="11" customWidth="1"/>
-    <col min="13813" max="13813" width="10.42578125" customWidth="1"/>
+    <col min="13813" max="13813" width="10.5" customWidth="1"/>
     <col min="13814" max="13814" width="15" customWidth="1"/>
-    <col min="13815" max="13815" width="10.28515625" customWidth="1"/>
+    <col min="13815" max="13815" width="10.33203125" customWidth="1"/>
     <col min="13816" max="13816" width="10" customWidth="1"/>
-    <col min="13817" max="13817" width="9.85546875" customWidth="1"/>
-    <col min="13818" max="13818" width="9.140625" customWidth="1"/>
-    <col min="13819" max="13819" width="10.42578125" customWidth="1"/>
+    <col min="13817" max="13817" width="9.83203125" customWidth="1"/>
+    <col min="13818" max="13818" width="9.1640625" customWidth="1"/>
+    <col min="13819" max="13819" width="10.5" customWidth="1"/>
     <col min="13820" max="13820" width="16" customWidth="1"/>
-    <col min="13821" max="13821" width="10.7109375" customWidth="1"/>
-    <col min="13822" max="13822" width="9.7109375" customWidth="1"/>
+    <col min="13821" max="13821" width="10.6640625" customWidth="1"/>
+    <col min="13822" max="13822" width="9.6640625" customWidth="1"/>
     <col min="13823" max="13823" width="11" customWidth="1"/>
-    <col min="14069" max="14069" width="10.42578125" customWidth="1"/>
+    <col min="14069" max="14069" width="10.5" customWidth="1"/>
     <col min="14070" max="14070" width="15" customWidth="1"/>
-    <col min="14071" max="14071" width="10.28515625" customWidth="1"/>
+    <col min="14071" max="14071" width="10.33203125" customWidth="1"/>
     <col min="14072" max="14072" width="10" customWidth="1"/>
-    <col min="14073" max="14073" width="9.85546875" customWidth="1"/>
-    <col min="14074" max="14074" width="9.140625" customWidth="1"/>
-    <col min="14075" max="14075" width="10.42578125" customWidth="1"/>
+    <col min="14073" max="14073" width="9.83203125" customWidth="1"/>
+    <col min="14074" max="14074" width="9.1640625" customWidth="1"/>
+    <col min="14075" max="14075" width="10.5" customWidth="1"/>
     <col min="14076" max="14076" width="16" customWidth="1"/>
-    <col min="14077" max="14077" width="10.7109375" customWidth="1"/>
-    <col min="14078" max="14078" width="9.7109375" customWidth="1"/>
+    <col min="14077" max="14077" width="10.6640625" customWidth="1"/>
+    <col min="14078" max="14078" width="9.6640625" customWidth="1"/>
     <col min="14079" max="14079" width="11" customWidth="1"/>
-    <col min="14325" max="14325" width="10.42578125" customWidth="1"/>
+    <col min="14325" max="14325" width="10.5" customWidth="1"/>
     <col min="14326" max="14326" width="15" customWidth="1"/>
-    <col min="14327" max="14327" width="10.28515625" customWidth="1"/>
+    <col min="14327" max="14327" width="10.33203125" customWidth="1"/>
     <col min="14328" max="14328" width="10" customWidth="1"/>
-    <col min="14329" max="14329" width="9.85546875" customWidth="1"/>
-    <col min="14330" max="14330" width="9.140625" customWidth="1"/>
-    <col min="14331" max="14331" width="10.42578125" customWidth="1"/>
+    <col min="14329" max="14329" width="9.83203125" customWidth="1"/>
+    <col min="14330" max="14330" width="9.1640625" customWidth="1"/>
+    <col min="14331" max="14331" width="10.5" customWidth="1"/>
     <col min="14332" max="14332" width="16" customWidth="1"/>
-    <col min="14333" max="14333" width="10.7109375" customWidth="1"/>
-    <col min="14334" max="14334" width="9.7109375" customWidth="1"/>
+    <col min="14333" max="14333" width="10.6640625" customWidth="1"/>
+    <col min="14334" max="14334" width="9.6640625" customWidth="1"/>
     <col min="14335" max="14335" width="11" customWidth="1"/>
-    <col min="14581" max="14581" width="10.42578125" customWidth="1"/>
+    <col min="14581" max="14581" width="10.5" customWidth="1"/>
     <col min="14582" max="14582" width="15" customWidth="1"/>
-    <col min="14583" max="14583" width="10.28515625" customWidth="1"/>
+    <col min="14583" max="14583" width="10.33203125" customWidth="1"/>
     <col min="14584" max="14584" width="10" customWidth="1"/>
-    <col min="14585" max="14585" width="9.85546875" customWidth="1"/>
-    <col min="14586" max="14586" width="9.140625" customWidth="1"/>
-    <col min="14587" max="14587" width="10.42578125" customWidth="1"/>
+    <col min="14585" max="14585" width="9.83203125" customWidth="1"/>
+    <col min="14586" max="14586" width="9.1640625" customWidth="1"/>
+    <col min="14587" max="14587" width="10.5" customWidth="1"/>
     <col min="14588" max="14588" width="16" customWidth="1"/>
-    <col min="14589" max="14589" width="10.7109375" customWidth="1"/>
-    <col min="14590" max="14590" width="9.7109375" customWidth="1"/>
+    <col min="14589" max="14589" width="10.6640625" customWidth="1"/>
+    <col min="14590" max="14590" width="9.6640625" customWidth="1"/>
     <col min="14591" max="14591" width="11" customWidth="1"/>
-    <col min="14837" max="14837" width="10.42578125" customWidth="1"/>
+    <col min="14837" max="14837" width="10.5" customWidth="1"/>
     <col min="14838" max="14838" width="15" customWidth="1"/>
-    <col min="14839" max="14839" width="10.28515625" customWidth="1"/>
+    <col min="14839" max="14839" width="10.33203125" customWidth="1"/>
     <col min="14840" max="14840" width="10" customWidth="1"/>
-    <col min="14841" max="14841" width="9.85546875" customWidth="1"/>
-    <col min="14842" max="14842" width="9.140625" customWidth="1"/>
-    <col min="14843" max="14843" width="10.42578125" customWidth="1"/>
+    <col min="14841" max="14841" width="9.83203125" customWidth="1"/>
+    <col min="14842" max="14842" width="9.1640625" customWidth="1"/>
+    <col min="14843" max="14843" width="10.5" customWidth="1"/>
     <col min="14844" max="14844" width="16" customWidth="1"/>
-    <col min="14845" max="14845" width="10.7109375" customWidth="1"/>
-    <col min="14846" max="14846" width="9.7109375" customWidth="1"/>
+    <col min="14845" max="14845" width="10.6640625" customWidth="1"/>
+    <col min="14846" max="14846" width="9.6640625" customWidth="1"/>
     <col min="14847" max="14847" width="11" customWidth="1"/>
-    <col min="15093" max="15093" width="10.42578125" customWidth="1"/>
+    <col min="15093" max="15093" width="10.5" customWidth="1"/>
     <col min="15094" max="15094" width="15" customWidth="1"/>
-    <col min="15095" max="15095" width="10.28515625" customWidth="1"/>
+    <col min="15095" max="15095" width="10.33203125" customWidth="1"/>
     <col min="15096" max="15096" width="10" customWidth="1"/>
-    <col min="15097" max="15097" width="9.85546875" customWidth="1"/>
-    <col min="15098" max="15098" width="9.140625" customWidth="1"/>
-    <col min="15099" max="15099" width="10.42578125" customWidth="1"/>
+    <col min="15097" max="15097" width="9.83203125" customWidth="1"/>
+    <col min="15098" max="15098" width="9.1640625" customWidth="1"/>
+    <col min="15099" max="15099" width="10.5" customWidth="1"/>
     <col min="15100" max="15100" width="16" customWidth="1"/>
-    <col min="15101" max="15101" width="10.7109375" customWidth="1"/>
-    <col min="15102" max="15102" width="9.7109375" customWidth="1"/>
+    <col min="15101" max="15101" width="10.6640625" customWidth="1"/>
+    <col min="15102" max="15102" width="9.6640625" customWidth="1"/>
     <col min="15103" max="15103" width="11" customWidth="1"/>
-    <col min="15349" max="15349" width="10.42578125" customWidth="1"/>
+    <col min="15349" max="15349" width="10.5" customWidth="1"/>
     <col min="15350" max="15350" width="15" customWidth="1"/>
-    <col min="15351" max="15351" width="10.28515625" customWidth="1"/>
+    <col min="15351" max="15351" width="10.33203125" customWidth="1"/>
     <col min="15352" max="15352" width="10" customWidth="1"/>
-    <col min="15353" max="15353" width="9.85546875" customWidth="1"/>
-    <col min="15354" max="15354" width="9.140625" customWidth="1"/>
-    <col min="15355" max="15355" width="10.42578125" customWidth="1"/>
+    <col min="15353" max="15353" width="9.83203125" customWidth="1"/>
+    <col min="15354" max="15354" width="9.1640625" customWidth="1"/>
+    <col min="15355" max="15355" width="10.5" customWidth="1"/>
     <col min="15356" max="15356" width="16" customWidth="1"/>
-    <col min="15357" max="15357" width="10.7109375" customWidth="1"/>
-    <col min="15358" max="15358" width="9.7109375" customWidth="1"/>
+    <col min="15357" max="15357" width="10.6640625" customWidth="1"/>
+    <col min="15358" max="15358" width="9.6640625" customWidth="1"/>
     <col min="15359" max="15359" width="11" customWidth="1"/>
-    <col min="15605" max="15605" width="10.42578125" customWidth="1"/>
+    <col min="15605" max="15605" width="10.5" customWidth="1"/>
     <col min="15606" max="15606" width="15" customWidth="1"/>
-    <col min="15607" max="15607" width="10.28515625" customWidth="1"/>
+    <col min="15607" max="15607" width="10.33203125" customWidth="1"/>
     <col min="15608" max="15608" width="10" customWidth="1"/>
-    <col min="15609" max="15609" width="9.85546875" customWidth="1"/>
-    <col min="15610" max="15610" width="9.140625" customWidth="1"/>
-    <col min="15611" max="15611" width="10.42578125" customWidth="1"/>
+    <col min="15609" max="15609" width="9.83203125" customWidth="1"/>
+    <col min="15610" max="15610" width="9.1640625" customWidth="1"/>
+    <col min="15611" max="15611" width="10.5" customWidth="1"/>
     <col min="15612" max="15612" width="16" customWidth="1"/>
-    <col min="15613" max="15613" width="10.7109375" customWidth="1"/>
-    <col min="15614" max="15614" width="9.7109375" customWidth="1"/>
+    <col min="15613" max="15613" width="10.6640625" customWidth="1"/>
+    <col min="15614" max="15614" width="9.6640625" customWidth="1"/>
     <col min="15615" max="15615" width="11" customWidth="1"/>
-    <col min="15861" max="15861" width="10.42578125" customWidth="1"/>
+    <col min="15861" max="15861" width="10.5" customWidth="1"/>
     <col min="15862" max="15862" width="15" customWidth="1"/>
-    <col min="15863" max="15863" width="10.28515625" customWidth="1"/>
+    <col min="15863" max="15863" width="10.33203125" customWidth="1"/>
     <col min="15864" max="15864" width="10" customWidth="1"/>
-    <col min="15865" max="15865" width="9.85546875" customWidth="1"/>
-    <col min="15866" max="15866" width="9.140625" customWidth="1"/>
-    <col min="15867" max="15867" width="10.42578125" customWidth="1"/>
+    <col min="15865" max="15865" width="9.83203125" customWidth="1"/>
+    <col min="15866" max="15866" width="9.1640625" customWidth="1"/>
+    <col min="15867" max="15867" width="10.5" customWidth="1"/>
     <col min="15868" max="15868" width="16" customWidth="1"/>
-    <col min="15869" max="15869" width="10.7109375" customWidth="1"/>
-    <col min="15870" max="15870" width="9.7109375" customWidth="1"/>
+    <col min="15869" max="15869" width="10.6640625" customWidth="1"/>
+    <col min="15870" max="15870" width="9.6640625" customWidth="1"/>
     <col min="15871" max="15871" width="11" customWidth="1"/>
-    <col min="16117" max="16117" width="10.42578125" customWidth="1"/>
+    <col min="16117" max="16117" width="10.5" customWidth="1"/>
     <col min="16118" max="16118" width="15" customWidth="1"/>
-    <col min="16119" max="16119" width="10.28515625" customWidth="1"/>
+    <col min="16119" max="16119" width="10.33203125" customWidth="1"/>
     <col min="16120" max="16120" width="10" customWidth="1"/>
-    <col min="16121" max="16121" width="9.85546875" customWidth="1"/>
-    <col min="16122" max="16122" width="9.140625" customWidth="1"/>
-    <col min="16123" max="16123" width="10.42578125" customWidth="1"/>
+    <col min="16121" max="16121" width="9.83203125" customWidth="1"/>
+    <col min="16122" max="16122" width="9.1640625" customWidth="1"/>
+    <col min="16123" max="16123" width="10.5" customWidth="1"/>
     <col min="16124" max="16124" width="16" customWidth="1"/>
-    <col min="16125" max="16125" width="10.7109375" customWidth="1"/>
-    <col min="16126" max="16126" width="9.7109375" customWidth="1"/>
+    <col min="16125" max="16125" width="10.6640625" customWidth="1"/>
+    <col min="16126" max="16126" width="9.6640625" customWidth="1"/>
     <col min="16127" max="16127" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="9">
         <v>11330</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="9">
         <v>2660</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="9">
         <v>1180</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="9">
         <v>18140</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="9">
         <v>8730</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="9">
         <v>11730</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="12">
         <v>3.5304501323918824E-2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="9">
         <v>3010</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="12">
         <v>0.13157894736842102</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="9">
         <v>1380</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="12">
         <v>0.16949152542372881</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="9">
         <v>18580</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="12">
         <v>2.4255788313120252E-2</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="9">
         <v>9320</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="12">
         <v>6.7583046964490245E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="9">
         <v>11660</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="12">
         <v>-5.9676044330775335E-3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="9">
         <v>2900</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="12">
         <v>-3.6544850498338888E-2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="9">
         <v>1540</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="12">
         <v>0.11594202898550732</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="9">
         <v>18320</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="12">
         <v>-1.3993541442411161E-2</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="9">
         <v>9100</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="12">
         <v>-2.3605150214592308E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="9">
         <v>10870</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="12">
         <v>-6.7753001715265881E-2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>2600</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="12">
         <v>-0.10344827586206895</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="9">
         <v>1430</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="12">
         <v>-7.1428571428571397E-2</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="9">
         <v>17450</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="12">
         <v>-4.7489082969432328E-2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="9">
         <v>8420</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="12">
         <v>-7.4725274725274682E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="9">
         <v>10650</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="12">
         <v>-2.0239190432382759E-2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="9">
         <v>2510</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="12">
         <v>-3.4615384615384603E-2</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="9">
         <v>1160</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="12">
         <v>-0.18881118881118886</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="9">
         <v>17110</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="12">
         <v>-1.9484240687679066E-2</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="9">
         <v>8280</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="12">
         <v>-1.6627078384798155E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="9">
         <v>11170</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="12">
         <v>4.882629107981229E-2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="9">
         <v>2740</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="12">
         <v>9.1633466135458086E-2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="9">
         <v>1240</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="12">
         <v>6.8965517241379226E-2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="9">
         <v>17570</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="12">
         <v>2.688486265341905E-2</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="9">
         <v>8560</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="12">
         <v>3.3816425120772875E-2</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="9">
         <v>11150</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="12">
         <v>-1.7905102954342E-3</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="9">
         <v>2730</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="12">
         <v>-3.6496350364964014E-3</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="9">
         <v>1280</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="12">
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="9">
         <v>17520</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="12">
         <v>-2.845759817871385E-3</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="9">
         <v>8430</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="12">
         <v>-1.5186915887850483E-2</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="9">
         <v>11350</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="12">
         <v>1.7937219730941756E-2</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="9">
         <v>2650</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="12">
         <v>-2.9304029304029311E-2</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="9">
         <v>1270</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="12">
         <v>-7.8125E-3</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="9">
         <v>17680</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="12">
         <v>9.1324200913243114E-3</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="9">
         <v>8250</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="12">
         <v>-2.1352313167259829E-2</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="9">
         <v>11140</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="12">
         <v>-1.8502202643171817E-2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="9">
         <v>2550</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="12">
         <v>-3.7735849056603765E-2</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="9">
         <v>1240</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="12">
         <v>-2.3622047244094446E-2</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="9">
         <v>17270</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="12">
         <v>-2.3190045248868807E-2</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="9">
         <v>8030</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="12">
         <v>-2.6666666666666616E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="9">
         <v>11030</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="12">
         <v>-9.8743267504488585E-3</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="9">
         <v>2440</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="12">
         <v>-4.3137254901960742E-2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="9">
         <v>1190</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="12">
         <v>-4.0322580645161255E-2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="9">
         <v>17030</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="12">
         <v>-1.389693109438328E-2</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="9">
         <v>7770</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="12">
         <v>-3.2378580323785822E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="9">
         <v>11310</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="12">
         <v>2.5385312783318126E-2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="9">
         <v>2500</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="12">
         <v>2.4590163934426146E-2</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="9">
         <v>1180</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="12">
         <v>-8.4033613445377853E-3</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="9">
         <v>17410</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="12">
         <v>2.2313564298297228E-2</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="9">
         <v>7900</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="12">
         <v>1.6731016731016624E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="9">
         <v>11990</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="12">
         <v>6.0123784261715274E-2</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="9">
         <v>2660</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="12">
         <v>6.4000000000000057E-2</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="9">
         <v>1210</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="12">
         <v>2.5423728813559254E-2</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="9">
         <v>18430</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="12">
         <v>5.8587018954623815E-2</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="9">
         <v>8270</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="12">
         <v>4.6835443037974711E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="9">
         <v>12840</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="12">
         <v>7.0892410341951706E-2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="9">
         <v>2900</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="12">
         <v>9.0225563909774431E-2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="9">
         <v>1340</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="12">
         <v>0.10743801652892571</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="9">
         <v>19580</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="12">
         <v>6.2398263700488288E-2</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="9">
         <v>8650</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="12">
         <v>4.5949214026602236E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="9">
         <v>13460</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="12">
         <v>4.8286604361370777E-2</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="9">
         <v>2980</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="12">
         <v>2.7586206896551779E-2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="9">
         <v>1400</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="12">
         <v>4.4776119402984982E-2</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="9">
         <v>20460</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="12">
         <v>4.4943820224719211E-2</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="9">
         <v>8910</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="12">
         <v>3.0057803468208188E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="9">
         <v>14310</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="12">
         <v>6.315007429420505E-2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="9">
         <v>3090</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="12">
         <v>3.691275167785224E-2</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="9">
         <v>1500</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="12">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="9">
         <v>20810</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="12">
         <v>1.7106549364613866E-2</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="9">
         <v>9020</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="12">
         <v>1.2345679012345734E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="9">
         <v>15330</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="12">
         <v>7.1278825995807038E-2</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="9">
         <v>3250</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="12">
         <v>5.1779935275080957E-2</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="9">
         <v>1520</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="12">
         <v>1.3333333333333419E-2</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="9">
         <v>22670</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="12">
         <v>8.9380105718404712E-2</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="9">
         <v>9320</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="12">
         <v>3.3259423503325891E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="9">
         <v>15610</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="12">
         <v>1.8264840182648401E-2</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="9">
         <v>3300</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="12">
         <v>1.538461538461533E-2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="9">
         <v>1640</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="12">
         <v>7.8947368421052655E-2</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="9">
         <v>23160</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="12">
         <v>2.1614468460520619E-2</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="9">
         <v>9300</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="12">
         <v>-2.1459227467811592E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="9">
         <v>17010</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="12">
         <v>8.9686098654708557E-2</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="9">
         <v>3360</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="12">
         <v>1.8181818181818077E-2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="9">
         <v>1700</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="12">
         <v>3.6585365853658569E-2</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="9">
         <v>24800</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="12">
         <v>7.0811744386873876E-2</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="9">
         <v>9480</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="12">
         <v>1.9354838709677358E-2</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="9">
         <v>17540</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="12">
         <v>3.1158142269253286E-2</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="9">
         <v>3440</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="12">
         <v>2.3809523809523725E-2</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="9">
         <v>1700</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="12">
         <v>0</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="9">
         <v>25440</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="12">
         <v>2.5806451612903292E-2</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="9">
         <v>9560</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="12">
         <v>8.4388185654007408E-3</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="9">
         <v>18050</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="12">
         <v>2.9076396807297566E-2</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="9">
         <v>3690</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="12">
         <v>7.267441860465107E-2</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="9">
         <v>1760</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="12">
         <v>3.529411764705892E-2</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="9">
         <v>26050</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="12">
         <v>2.3977987421383684E-2</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="9">
         <v>9800</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="12">
         <v>2.5104602510460206E-2</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="9">
         <v>18150</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="12">
         <v>5.5401662049860967E-3</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="9">
         <v>3900</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="12">
         <v>5.6910569105691033E-2</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="9">
         <v>2160</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="12">
         <v>0.22727272727272729</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="9">
         <v>26260</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="12">
         <v>8.0614203454894007E-3</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="9">
         <v>10080</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="12">
         <v>2.857142857142847E-2</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="9">
         <v>18740</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="12">
         <v>3.2506887052341504E-2</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="9">
         <v>4180</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="12">
         <v>7.1794871794871762E-2</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="9">
         <v>2010</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="12">
         <v>-6.944444444444442E-2</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="9">
         <v>26960</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="12">
         <v>2.6656511805026595E-2</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="9">
         <v>10460</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="12">
         <v>3.7698412698412787E-2</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="9">
         <v>19210</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="12">
         <v>2.5080042689434423E-2</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="9">
         <v>4430</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="12">
         <v>5.9808612440191311E-2</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="9">
         <v>2180</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="12">
         <v>8.4577114427860645E-2</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="9">
         <v>27570</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="12">
         <v>2.2626112759643879E-2</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="9">
         <v>10840</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="12">
         <v>3.632887189292533E-2</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="9">
         <v>19900</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="12">
         <v>3.5918792295679403E-2</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="9">
         <v>4600</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="12">
         <v>3.8374717832957206E-2</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="9">
         <v>2220</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="12">
         <v>1.8348623853210899E-2</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="9">
         <v>28020</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="12">
         <v>1.6322089227421177E-2</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="9">
         <v>11240</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="12">
         <v>3.6900369003689981E-2</v>
       </c>
-      <c r="L27" s="23"/>
+      <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="9">
         <v>20190</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="12">
         <v>1.4572864321608092E-2</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="9">
         <v>4640</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="12">
         <v>8.6956521739129933E-3</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="9">
         <v>2200</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="12">
         <v>-9.009009009009028E-3</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="9">
         <v>28720</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="12">
         <v>2.4982155603140654E-2</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="9">
         <v>11140</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="12">
         <v>-8.8967971530249379E-3</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="9">
         <v>20850</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="12">
         <v>3.2689450222882721E-2</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="9">
         <v>4780</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="12">
         <v>3.0172413793103425E-2</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="9">
         <v>2360</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="12">
         <v>7.2727272727272751E-2</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="9">
         <v>29470</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="12">
         <v>2.6114206128133644E-2</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="9">
         <v>11460</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="12">
         <v>2.8725314183123851E-2</v>
       </c>
-      <c r="L29" s="23"/>
+      <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="9">
         <v>21650</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="12">
         <v>3.83693045563549E-2</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="9">
         <v>4880</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="12">
         <v>2.0920502092050208E-2</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="9">
         <v>2470</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="12">
         <v>4.6610169491525522E-2</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="9">
         <v>30400</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="12">
         <v>3.1557516118086104E-2</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="9">
         <v>11730</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="12">
         <v>2.3560209424083878E-2</v>
       </c>
-      <c r="L30" s="23"/>
+      <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="9">
         <v>22710</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="12">
         <v>4.896073903002307E-2</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="9">
         <v>5020</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="12">
         <v>2.8688524590164022E-2</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="9">
         <v>2390</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="12">
         <v>-3.2388663967611309E-2</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="9">
         <v>31590</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="12">
         <v>3.9144736842105177E-2</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="9">
         <v>12000</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="12">
         <v>2.3017902813299296E-2</v>
       </c>
-      <c r="L31" s="23"/>
+      <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="9">
         <v>23460</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="12">
         <v>3.302509907529716E-2</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="9">
         <v>5080</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="12">
         <v>1.195219123505975E-2</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="9">
         <v>2490</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="12">
         <v>4.1841004184100417E-2</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="9">
         <v>32470</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="12">
         <v>2.7856916745805593E-2</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="9">
         <v>12210</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="12">
         <v>1.7500000000000071E-2</v>
       </c>
-      <c r="L32" s="23"/>
+      <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="9">
         <v>23440</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="12">
         <v>-8.5251491901106036E-4</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="9">
         <v>5120</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="12">
         <v>7.8740157480314821E-3</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="9">
         <v>2390</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="12">
         <v>-4.016064257028118E-2</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="9">
         <v>32430</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="12">
         <v>-1.2319063751154991E-3</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="9">
         <v>12310</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="12">
         <v>8.1900081900081467E-3</v>
       </c>
-      <c r="L33" s="23"/>
+      <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="9">
         <v>24680</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="12">
         <v>5.2901023890784993E-2</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="9">
         <v>5350</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="12">
         <v>4.4921875E-2</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="9">
         <v>2290</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="12">
         <v>-4.1841004184100417E-2</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="9">
         <v>33880</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="12">
         <v>4.4711686709836496E-2</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="9">
         <v>12820</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="12">
         <v>4.1429731925264113E-2</v>
       </c>
-      <c r="L34" s="23"/>
+      <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="9">
         <v>25270</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="12">
         <v>2.3905996758508907E-2</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="9">
         <v>5740</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="12">
         <v>7.2897196261682229E-2</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="9">
         <v>2340</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="12">
         <v>2.1834061135371119E-2</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="9">
         <v>34800</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="12">
         <v>2.7154663518299982E-2</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="9">
         <v>13530</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="12">
         <v>5.5382215288611647E-2</v>
       </c>
-      <c r="L35" s="23"/>
+      <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="9">
         <v>25970</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="12">
         <v>2.7700831024930705E-2</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="9">
         <v>6370</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="12">
         <v>0.10975609756097571</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="9">
         <v>2620</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="12">
         <v>0.11965811965811968</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="9">
         <v>35710</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="12">
         <v>2.614942528735642E-2</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="9">
         <v>14430</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="12">
         <v>6.6518847006651782E-2</v>
       </c>
-      <c r="L36" s="23"/>
+      <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="9">
         <v>26680</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="12">
         <v>2.7339237581825104E-2</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="9">
         <v>6830</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="12">
         <v>7.2213500784929385E-2</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="9">
         <v>2770</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="12">
         <v>5.7251908396946494E-2</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="9">
         <v>36550</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="12">
         <v>2.3522822738728744E-2</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="9">
         <v>15140</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="12">
         <v>4.9203049203049298E-2</v>
       </c>
-      <c r="L37" s="23"/>
+      <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="9">
         <v>27060</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="12">
         <v>1.4242878560719596E-2</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="9">
         <v>7080</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="12">
         <v>3.6603221083455262E-2</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="9">
         <v>2810</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="12">
         <v>1.4440433212996373E-2</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="9">
         <v>37070</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="12">
         <v>1.4227086183310478E-2</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="9">
         <v>15630</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="12">
         <v>3.2364597093791359E-2</v>
       </c>
-      <c r="L38" s="23"/>
+      <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="9">
         <v>27630</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="12">
         <v>2.1064301552106368E-2</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="9">
         <v>7180</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="12">
         <v>1.4124293785310771E-2</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="9">
         <v>2810</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="12">
         <v>0</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="9">
         <v>37770</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="12">
         <v>1.888319395737792E-2</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="9">
         <v>15900</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="12">
         <v>1.7274472168905985E-2</v>
       </c>
-      <c r="L39" s="23"/>
+      <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="9">
         <v>28330</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="12">
         <v>2.5334781035106779E-2</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="9">
         <v>7490</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="12">
         <v>4.3175487465181073E-2</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="9">
         <v>2770</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="12">
         <v>-1.4234875444839812E-2</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="9">
         <v>38700</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="12">
         <v>2.4622716441620396E-2</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="9">
         <v>16410</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="12">
         <v>3.2075471698113311E-2</v>
       </c>
-      <c r="L40" s="23"/>
+      <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="9">
         <v>28440</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="12">
         <v>3.8828097423226904E-3</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="9">
         <v>7560</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="12">
         <v>9.3457943925232545E-3</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="9">
         <v>2730</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="12">
         <v>-1.4440433212996373E-2</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="9">
         <v>38720</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="12">
         <v>5.1679586563313507E-4</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="9">
         <v>16460</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="12">
         <v>3.0469226081657474E-3</v>
       </c>
-      <c r="L41" s="23"/>
+      <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="9">
         <v>30120</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="12">
         <v>5.9071729957805852E-2</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="9">
         <v>8270</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="12">
         <v>9.3915343915343952E-2</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="9">
         <v>3010</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="12">
         <v>0.10256410256410264</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="9">
         <v>41040</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="12">
         <v>5.9917355371900793E-2</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="9">
         <v>17830</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="12">
         <v>8.323207776427699E-2</v>
       </c>
-      <c r="L42" s="23"/>
+      <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="9">
         <v>30940</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="12">
         <v>2.7224435590969431E-2</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="9">
         <v>8820</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="12">
         <v>6.6505441354292705E-2</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="9">
         <v>3170</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="12">
         <v>5.3156146179401897E-2</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="9">
         <v>42160</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="12">
         <v>2.7290448343080032E-2</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="9">
         <v>18700</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="12">
         <v>4.879416713404372E-2</v>
       </c>
-      <c r="L43" s="23"/>
+      <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="9">
         <v>31100</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="12">
         <v>5.1712992889463294E-3</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="9">
         <v>9240</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="12">
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="9">
         <v>3310</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="12">
         <v>4.4164037854889537E-2</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="9">
         <v>42350</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="12">
         <v>4.506641366223807E-3</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="9">
         <v>19140</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="12">
         <v>2.3529411764705799E-2</v>
       </c>
-      <c r="L44" s="23"/>
+      <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="9">
         <v>31890</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="12">
         <v>2.5401929260450151E-2</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="9">
         <v>9510</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="12">
         <v>2.9220779220779258E-2</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="9">
         <v>3460</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="12">
         <v>4.5317220543806602E-2</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="9">
         <v>43390</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="12">
         <v>2.4557260920897273E-2</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="9">
         <v>19600</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="12">
         <v>2.4033437826541215E-2</v>
       </c>
-      <c r="L45" s="23"/>
+      <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="9">
         <v>32500</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="12">
         <v>1.9128253370962689E-2</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="9">
         <v>9590</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="12">
         <v>8.4121976866455839E-3</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="9">
         <v>3500</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="12">
         <v>1.1560693641618602E-2</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="9">
         <v>44190</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="12">
         <v>1.8437427978796883E-2</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="9">
         <v>19830</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="12">
         <v>1.1734693877551106E-2</v>
       </c>
-      <c r="L46" s="23"/>
+      <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="9">
         <v>33090</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="12">
         <v>1.8153846153846187E-2</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="9">
         <v>9680</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="12">
         <v>9.3847758081335719E-3</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="9">
         <v>3530</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="12">
         <v>8.5714285714286742E-3</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="9">
         <v>44900</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="12">
         <v>1.6066983480425456E-2</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="9">
         <v>20020</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="12">
         <v>9.581442259203321E-3</v>
       </c>
-      <c r="L47" s="23"/>
+      <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="9">
         <v>34150</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="12">
         <v>3.2033847083711153E-2</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="9">
         <v>9960</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="12">
         <v>2.8925619834710758E-2</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="9">
         <v>3590</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="12">
         <v>1.6997167138810276E-2</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="9">
         <v>46330</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="12">
         <v>3.1848552338530123E-2</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="9">
         <v>20660</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="12">
         <v>3.1968031968031996E-2</v>
       </c>
-      <c r="L48" s="23"/>
+      <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="9">
         <v>35080</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="12">
         <v>2.7232796486090782E-2</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="9">
         <v>10130</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="12">
         <v>1.7068273092369468E-2</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="9">
         <v>3620</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="12">
         <v>8.3565459610028814E-3</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="9">
         <v>47490</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="12">
         <v>2.5037772501618871E-2</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="9">
         <v>21100</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="12">
         <v>2.1297192642788065E-2</v>
       </c>
-      <c r="L49" s="23"/>
+      <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="9">
         <v>35720</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="12">
         <v>1.8244013683010207E-2</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="9">
         <v>10270</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="12">
         <v>1.382033563672258E-2</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="9">
         <v>3670</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="12">
         <v>1.3812154696132506E-2</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="9">
         <v>48380</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="12">
         <v>1.8740787534217818E-2</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="9">
         <v>21400</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="12">
         <v>1.4218009478673022E-2</v>
       </c>
-      <c r="L50" s="23"/>
+      <c r="L50" s="14"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="9">
         <v>35830</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="12">
         <v>3.0795072788354361E-3</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="9">
         <v>10230</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="12">
         <v>-3.894839337877265E-3</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="9">
         <v>3660</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="12">
         <v>-2.7247956403270157E-3</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="9">
         <v>48510</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="12">
         <v>2.6870607689126746E-3</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="9">
         <v>21370</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="12">
         <v>-1.4018691588785215E-3</v>
       </c>
-      <c r="L51" s="23"/>
+      <c r="L51" s="14"/>
     </row>
-    <row r="52" spans="1:12" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="8" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:12" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
     </row>
-    <row r="53" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="18">
-        <v>1830</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="18">
-        <v>430</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="18">
-        <v>190</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="32">
-        <v>2930</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" s="18">
-        <v>1410</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="18">
-        <v>1950</v>
-      </c>
-      <c r="C55" s="21">
-        <v>6.5573770491803351E-2</v>
-      </c>
-      <c r="D55" s="18">
-        <v>500</v>
-      </c>
-      <c r="E55" s="21">
-        <v>0.16279069767441867</v>
-      </c>
-      <c r="F55" s="18">
-        <v>230</v>
-      </c>
-      <c r="G55" s="21">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="H55" s="32">
-        <v>3090</v>
-      </c>
-      <c r="I55" s="21">
-        <v>5.4607508532423132E-2</v>
-      </c>
-      <c r="J55" s="18">
-        <v>1550</v>
-      </c>
-      <c r="K55" s="21">
-        <v>9.9290780141843893E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="18">
-        <v>2050</v>
-      </c>
-      <c r="C56" s="21">
-        <v>5.1282051282051322E-2</v>
-      </c>
-      <c r="D56" s="18">
-        <v>510</v>
-      </c>
-      <c r="E56" s="21">
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="F56" s="18">
-        <v>270</v>
-      </c>
-      <c r="G56" s="21">
-        <v>0.17391304347826098</v>
-      </c>
-      <c r="H56" s="32">
-        <v>3220</v>
-      </c>
-      <c r="I56" s="21">
-        <v>4.2071197411003292E-2</v>
-      </c>
-      <c r="J56" s="18">
-        <v>1600</v>
-      </c>
-      <c r="K56" s="21">
-        <v>3.2258064516129004E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="18">
-        <v>2130</v>
-      </c>
-      <c r="C57" s="21">
-        <v>3.9024390243902474E-2</v>
-      </c>
-      <c r="D57" s="18">
-        <v>510</v>
-      </c>
-      <c r="E57" s="21">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18">
-        <v>280</v>
-      </c>
-      <c r="G57" s="21">
-        <v>3.7037037037036979E-2</v>
-      </c>
-      <c r="H57" s="32">
-        <v>3420</v>
-      </c>
-      <c r="I57" s="21">
-        <v>6.211180124223592E-2</v>
-      </c>
-      <c r="J57" s="18">
-        <v>1650</v>
-      </c>
-      <c r="K57" s="21">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="18">
-        <v>2290</v>
-      </c>
-      <c r="C58" s="21">
-        <v>7.5117370892018753E-2</v>
-      </c>
-      <c r="D58" s="18">
-        <v>540</v>
-      </c>
-      <c r="E58" s="21">
-        <v>5.8823529411764719E-2</v>
-      </c>
-      <c r="F58" s="18">
-        <v>250</v>
-      </c>
-      <c r="G58" s="21">
-        <v>-0.1071428571428571</v>
-      </c>
-      <c r="H58" s="32">
-        <v>3680</v>
-      </c>
-      <c r="I58" s="21">
-        <v>7.6023391812865437E-2</v>
-      </c>
-      <c r="J58" s="18">
-        <v>1780</v>
-      </c>
-      <c r="K58" s="21">
-        <v>7.8787878787878851E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="18">
-        <v>2530</v>
-      </c>
-      <c r="C59" s="21">
-        <v>0.10480349344978168</v>
-      </c>
-      <c r="D59" s="18">
-        <v>620</v>
-      </c>
-      <c r="E59" s="21">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="F59" s="18">
-        <v>280</v>
-      </c>
-      <c r="G59" s="21">
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="H59" s="32">
-        <v>3980</v>
-      </c>
-      <c r="I59" s="21">
-        <v>8.1521739130434812E-2</v>
-      </c>
-      <c r="J59" s="18">
-        <v>1940</v>
-      </c>
-      <c r="K59" s="21">
-        <v>8.98876404494382E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="18">
-        <v>2700</v>
-      </c>
-      <c r="C60" s="21">
-        <v>6.7193675889328119E-2</v>
-      </c>
-      <c r="D60" s="18">
-        <v>660</v>
-      </c>
-      <c r="E60" s="21">
-        <v>6.4516129032258007E-2</v>
-      </c>
-      <c r="F60" s="18">
-        <v>310</v>
-      </c>
-      <c r="G60" s="21">
-        <v>0.10714285714285721</v>
-      </c>
-      <c r="H60" s="32">
-        <v>4240</v>
-      </c>
-      <c r="I60" s="21">
-        <v>6.5326633165829096E-2</v>
-      </c>
-      <c r="J60" s="18">
-        <v>2040</v>
-      </c>
-      <c r="K60" s="21">
-        <v>5.1546391752577359E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="18">
-        <v>2960</v>
-      </c>
-      <c r="C61" s="21">
-        <v>9.6296296296296324E-2</v>
-      </c>
-      <c r="D61" s="18">
-        <v>690</v>
-      </c>
-      <c r="E61" s="21">
-        <v>4.5454545454545414E-2</v>
-      </c>
-      <c r="F61" s="18">
-        <v>330</v>
-      </c>
-      <c r="G61" s="21">
-        <v>6.4516129032258007E-2</v>
-      </c>
-      <c r="H61" s="32">
-        <v>4610</v>
-      </c>
-      <c r="I61" s="21">
-        <v>8.7264150943396235E-2</v>
-      </c>
-      <c r="J61" s="18">
-        <v>2150</v>
-      </c>
-      <c r="K61" s="21">
-        <v>5.3921568627451011E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="18">
-        <v>3230</v>
-      </c>
-      <c r="C62" s="21">
-        <v>9.1216216216216228E-2</v>
-      </c>
-      <c r="D62" s="18">
-        <v>740</v>
-      </c>
-      <c r="E62" s="21">
-        <v>7.2463768115942129E-2</v>
-      </c>
-      <c r="F62" s="18">
-        <v>360</v>
-      </c>
-      <c r="G62" s="21">
-        <v>9.0909090909090828E-2</v>
-      </c>
-      <c r="H62" s="32">
-        <v>5010</v>
-      </c>
-      <c r="I62" s="21">
-        <v>8.6767895878524959E-2</v>
-      </c>
-      <c r="J62" s="18">
-        <v>2330</v>
-      </c>
-      <c r="K62" s="21">
-        <v>8.3720930232558111E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="18">
-        <v>3620</v>
-      </c>
-      <c r="C63" s="21">
-        <v>0.12074303405572762</v>
-      </c>
-      <c r="D63" s="18">
-        <v>800</v>
-      </c>
-      <c r="E63" s="21">
-        <v>8.1081081081081141E-2</v>
-      </c>
-      <c r="F63" s="18">
-        <v>390</v>
-      </c>
-      <c r="G63" s="21">
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H63" s="32">
-        <v>5590</v>
-      </c>
-      <c r="I63" s="21">
-        <v>0.11576846307385225</v>
-      </c>
-      <c r="J63" s="18">
-        <v>2550</v>
-      </c>
-      <c r="K63" s="21">
-        <v>9.4420600858369008E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="18">
-        <v>4110</v>
-      </c>
-      <c r="C64" s="21">
-        <v>0.13535911602209949</v>
-      </c>
-      <c r="D64" s="18">
-        <v>910</v>
-      </c>
-      <c r="E64" s="21">
-        <v>0.13749999999999996</v>
-      </c>
-      <c r="F64" s="18">
-        <v>430</v>
-      </c>
-      <c r="G64" s="21">
-        <v>0.10256410256410264</v>
-      </c>
-      <c r="H64" s="32">
-        <v>6330</v>
-      </c>
-      <c r="I64" s="21">
-        <v>0.1323792486583184</v>
-      </c>
-      <c r="J64" s="18">
-        <v>2870</v>
-      </c>
-      <c r="K64" s="21">
-        <v>0.12549019607843137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="18">
-        <v>4640</v>
-      </c>
-      <c r="C65" s="21">
-        <v>0.12895377128953767</v>
-      </c>
-      <c r="D65" s="18">
-        <v>1030</v>
-      </c>
-      <c r="E65" s="21">
-        <v>0.13186813186813184</v>
-      </c>
-      <c r="F65" s="18">
-        <v>470</v>
-      </c>
-      <c r="G65" s="21">
-        <v>9.3023255813953432E-2</v>
-      </c>
-      <c r="H65" s="32">
-        <v>7130</v>
-      </c>
-      <c r="I65" s="21">
-        <v>0.12638230647709325</v>
-      </c>
-      <c r="J65" s="18">
-        <v>3200</v>
-      </c>
-      <c r="K65" s="21">
-        <v>0.11498257839721249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="18">
-        <v>5090</v>
-      </c>
-      <c r="C66" s="21">
-        <v>9.6982758620689724E-2</v>
-      </c>
-      <c r="D66" s="18">
-        <v>1150</v>
-      </c>
-      <c r="E66" s="21">
-        <v>0.11650485436893199</v>
-      </c>
-      <c r="F66" s="18">
-        <v>530</v>
-      </c>
-      <c r="G66" s="21">
-        <v>0.12765957446808507</v>
-      </c>
-      <c r="H66" s="32">
-        <v>7760</v>
-      </c>
-      <c r="I66" s="21">
-        <v>8.8359046283309928E-2</v>
-      </c>
-      <c r="J66" s="18">
-        <v>3430</v>
-      </c>
-      <c r="K66" s="21">
-        <v>7.1874999999999911E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="18">
-        <v>5560</v>
-      </c>
-      <c r="C67" s="21">
-        <v>9.2337917485265208E-2</v>
-      </c>
-      <c r="D67" s="18">
-        <v>1230</v>
-      </c>
-      <c r="E67" s="21">
-        <v>6.956521739130439E-2</v>
-      </c>
-      <c r="F67" s="18">
-        <v>580</v>
-      </c>
-      <c r="G67" s="21">
-        <v>9.4339622641509413E-2</v>
-      </c>
-      <c r="H67" s="32">
-        <v>8450</v>
-      </c>
-      <c r="I67" s="21">
-        <v>8.8917525773195782E-2</v>
-      </c>
-      <c r="J67" s="18">
-        <v>3680</v>
-      </c>
-      <c r="K67" s="21">
-        <v>7.2886297376093312E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="18">
-        <v>6120</v>
-      </c>
-      <c r="C68" s="21">
-        <v>0.10071942446043169</v>
-      </c>
-      <c r="D68" s="18">
-        <v>1320</v>
-      </c>
-      <c r="E68" s="21">
-        <v>7.3170731707317138E-2</v>
-      </c>
-      <c r="F68" s="18">
-        <v>640</v>
-      </c>
-      <c r="G68" s="21">
-        <v>0.10344827586206895</v>
-      </c>
-      <c r="H68" s="32">
-        <v>8900</v>
-      </c>
-      <c r="I68" s="21">
-        <v>5.3254437869822535E-2</v>
-      </c>
-      <c r="J68" s="18">
-        <v>3860</v>
-      </c>
-      <c r="K68" s="21">
-        <v>4.8913043478260976E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="18">
-        <v>6660</v>
-      </c>
-      <c r="C69" s="21">
-        <v>8.8235294117646967E-2</v>
-      </c>
-      <c r="D69" s="18">
-        <v>1410</v>
-      </c>
-      <c r="E69" s="21">
-        <v>6.8181818181818121E-2</v>
-      </c>
-      <c r="F69" s="18">
-        <v>660</v>
-      </c>
-      <c r="G69" s="21">
-        <v>3.125E-2</v>
-      </c>
-      <c r="H69" s="32">
-        <v>9850</v>
-      </c>
-      <c r="I69" s="21">
-        <v>0.10674157303370779</v>
-      </c>
-      <c r="J69" s="18">
-        <v>4050</v>
-      </c>
-      <c r="K69" s="21">
-        <v>4.9222797927461093E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="33">
-        <v>7050</v>
-      </c>
-      <c r="C70" s="21">
-        <v>5.8558558558558627E-2</v>
-      </c>
-      <c r="D70" s="33">
-        <v>1490</v>
-      </c>
-      <c r="E70" s="21">
-        <v>5.6737588652482351E-2</v>
-      </c>
-      <c r="F70" s="33">
-        <v>740</v>
-      </c>
-      <c r="G70" s="21">
-        <v>0.1212121212121211</v>
-      </c>
-      <c r="H70" s="32">
-        <v>10460</v>
-      </c>
-      <c r="I70" s="21">
-        <v>6.1928934010152314E-2</v>
-      </c>
-      <c r="J70" s="18">
-        <v>4200</v>
-      </c>
-      <c r="K70" s="21">
-        <v>3.7037037037036979E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="33">
-        <v>8000</v>
-      </c>
-      <c r="C71" s="21">
-        <v>0.13475177304964547</v>
-      </c>
-      <c r="D71" s="33">
-        <v>1580</v>
-      </c>
-      <c r="E71" s="21">
-        <v>6.0402684563758413E-2</v>
-      </c>
-      <c r="F71" s="33">
-        <v>800</v>
-      </c>
-      <c r="G71" s="21">
-        <v>8.1081081081081141E-2</v>
-      </c>
-      <c r="H71" s="32">
-        <v>11660</v>
-      </c>
-      <c r="I71" s="21">
-        <v>0.1147227533460804</v>
-      </c>
-      <c r="J71" s="18">
-        <v>4460</v>
-      </c>
-      <c r="K71" s="21">
-        <v>6.1904761904761907E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="33">
-        <v>8660</v>
-      </c>
-      <c r="C72" s="21">
-        <v>8.2500000000000018E-2</v>
-      </c>
-      <c r="D72" s="33">
-        <v>1700</v>
-      </c>
-      <c r="E72" s="21">
-        <v>7.5949367088607556E-2</v>
-      </c>
-      <c r="F72" s="33">
-        <v>840</v>
-      </c>
-      <c r="G72" s="21">
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="H72" s="32">
-        <v>12560</v>
-      </c>
-      <c r="I72" s="21">
-        <v>7.7186963979416712E-2</v>
-      </c>
-      <c r="J72" s="18">
-        <v>4720</v>
-      </c>
-      <c r="K72" s="21">
-        <v>5.8295964125560484E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="33">
-        <v>9340</v>
-      </c>
-      <c r="C73" s="21">
-        <v>7.8521939953810627E-2</v>
-      </c>
-      <c r="D73" s="33">
-        <v>1910</v>
-      </c>
-      <c r="E73" s="21">
-        <v>0.12352941176470589</v>
-      </c>
-      <c r="F73" s="33">
-        <v>910</v>
-      </c>
-      <c r="G73" s="21">
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H73" s="32">
-        <v>13480</v>
-      </c>
-      <c r="I73" s="21">
-        <v>7.3248407643312197E-2</v>
-      </c>
-      <c r="J73" s="18">
-        <v>5070</v>
-      </c>
-      <c r="K73" s="21">
-        <v>7.4152542372881269E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="33">
-        <v>9810</v>
-      </c>
-      <c r="C74" s="21">
-        <v>5.0321199143468887E-2</v>
-      </c>
-      <c r="D74" s="33">
-        <v>2110</v>
-      </c>
-      <c r="E74" s="21">
-        <v>0.10471204188481686</v>
-      </c>
-      <c r="F74" s="33">
-        <v>1170</v>
-      </c>
-      <c r="G74" s="21">
-        <v>0.28571428571428581</v>
-      </c>
-      <c r="H74" s="32">
-        <v>14190</v>
-      </c>
-      <c r="I74" s="21">
-        <v>5.2670623145400608E-2</v>
-      </c>
-      <c r="J74" s="18">
-        <v>5450</v>
-      </c>
-      <c r="K74" s="21">
-        <v>7.4950690335305659E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="33">
-        <v>10450</v>
-      </c>
-      <c r="C75" s="21">
-        <v>6.523955147808369E-2</v>
-      </c>
-      <c r="D75" s="33">
-        <v>2330</v>
-      </c>
-      <c r="E75" s="21">
-        <v>0.10426540284360186</v>
-      </c>
-      <c r="F75" s="33">
-        <v>1120</v>
-      </c>
-      <c r="G75" s="21">
-        <v>-4.2735042735042694E-2</v>
-      </c>
-      <c r="H75" s="32">
-        <v>15030</v>
-      </c>
-      <c r="I75" s="21">
-        <v>5.9196617336152224E-2</v>
-      </c>
-      <c r="J75" s="18">
-        <v>5830</v>
-      </c>
-      <c r="K75" s="21">
-        <v>6.9724770642201728E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="33">
-        <v>11010</v>
-      </c>
-      <c r="C76" s="21">
-        <v>5.3588516746411408E-2</v>
-      </c>
-      <c r="D76" s="33">
-        <v>2540</v>
-      </c>
-      <c r="E76" s="21">
-        <v>9.0128755364806912E-2</v>
-      </c>
-      <c r="F76" s="33">
-        <v>1250</v>
-      </c>
-      <c r="G76" s="21">
-        <v>0.1160714285714286</v>
-      </c>
-      <c r="H76" s="32">
-        <v>15800</v>
-      </c>
-      <c r="I76" s="21">
-        <v>5.1230871590153049E-2</v>
-      </c>
-      <c r="J76" s="18">
-        <v>6210</v>
-      </c>
-      <c r="K76" s="21">
-        <v>6.5180102915951998E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="33">
-        <v>11720</v>
-      </c>
-      <c r="C77" s="21">
-        <v>6.4486830154405039E-2</v>
-      </c>
-      <c r="D77" s="33">
-        <v>2710</v>
-      </c>
-      <c r="E77" s="21">
-        <v>6.692913385826782E-2</v>
-      </c>
-      <c r="F77" s="33">
-        <v>1310</v>
-      </c>
-      <c r="G77" s="21">
-        <v>4.8000000000000043E-2</v>
-      </c>
-      <c r="H77" s="32">
-        <v>16500</v>
-      </c>
-      <c r="I77" s="21">
-        <v>4.4303797468354444E-2</v>
-      </c>
-      <c r="J77" s="18">
-        <v>6620</v>
-      </c>
-      <c r="K77" s="21">
-        <v>6.602254428341392E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="33">
-        <v>12220</v>
-      </c>
-      <c r="C78" s="21">
-        <v>4.2662116040955711E-2</v>
-      </c>
-      <c r="D78" s="33">
-        <v>2810</v>
-      </c>
-      <c r="E78" s="21">
-        <v>3.6900369003689981E-2</v>
-      </c>
-      <c r="F78" s="33">
-        <v>1330</v>
-      </c>
-      <c r="G78" s="21">
-        <v>1.5267175572519109E-2</v>
-      </c>
-      <c r="H78" s="32">
-        <v>17380</v>
-      </c>
-      <c r="I78" s="21">
-        <v>5.3333333333333233E-2</v>
-      </c>
-      <c r="J78" s="18">
-        <v>6740</v>
-      </c>
-      <c r="K78" s="21">
-        <v>1.812688821752273E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="33">
-        <v>12990</v>
-      </c>
-      <c r="C79" s="21">
-        <v>6.3011456628477847E-2</v>
-      </c>
-      <c r="D79" s="33">
-        <v>2980</v>
-      </c>
-      <c r="E79" s="21">
-        <v>6.0498220640569311E-2</v>
-      </c>
-      <c r="F79" s="33">
-        <v>1470</v>
-      </c>
-      <c r="G79" s="21">
-        <v>0.10526315789473695</v>
-      </c>
-      <c r="H79" s="32">
-        <v>18360</v>
-      </c>
-      <c r="I79" s="21">
-        <v>5.6386651323360182E-2</v>
-      </c>
-      <c r="J79" s="18">
-        <v>7140</v>
-      </c>
-      <c r="K79" s="21">
-        <v>5.9347181008902128E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="33">
-        <v>13790</v>
-      </c>
-      <c r="C80" s="21">
-        <v>6.1585835257890631E-2</v>
-      </c>
-      <c r="D80" s="33">
-        <v>3110</v>
-      </c>
-      <c r="E80" s="21">
-        <v>4.3624161073825496E-2</v>
-      </c>
-      <c r="F80" s="33">
-        <v>1570</v>
-      </c>
-      <c r="G80" s="21">
-        <v>6.8027210884353817E-2</v>
-      </c>
-      <c r="H80" s="32">
-        <v>19360</v>
-      </c>
-      <c r="I80" s="21">
-        <v>5.4466230936819127E-2</v>
-      </c>
-      <c r="J80" s="18">
-        <v>7470</v>
-      </c>
-      <c r="K80" s="21">
-        <v>4.6218487394958041E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="33">
-        <v>14710</v>
-      </c>
-      <c r="C81" s="21">
-        <v>6.6715010877447467E-2</v>
-      </c>
-      <c r="D81" s="33">
-        <v>3250</v>
-      </c>
-      <c r="E81" s="21">
-        <v>4.5016077170418001E-2</v>
-      </c>
-      <c r="F81" s="33">
-        <v>1550</v>
-      </c>
-      <c r="G81" s="21">
-        <v>-1.2738853503184711E-2</v>
-      </c>
-      <c r="H81" s="32">
-        <v>20460</v>
-      </c>
-      <c r="I81" s="21">
-        <v>5.6818181818181879E-2</v>
-      </c>
-      <c r="J81" s="18">
-        <v>7770</v>
-      </c>
-      <c r="K81" s="21">
-        <v>4.016064257028118E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="33">
-        <v>15520</v>
-      </c>
-      <c r="C82" s="21">
-        <v>5.5064581917063204E-2</v>
-      </c>
-      <c r="D82" s="33">
-        <v>3360</v>
-      </c>
-      <c r="E82" s="21">
-        <v>3.3846153846153859E-2</v>
-      </c>
-      <c r="F82" s="33">
-        <v>1650</v>
-      </c>
-      <c r="G82" s="21">
-        <v>6.4516129032258007E-2</v>
-      </c>
-      <c r="H82" s="32">
-        <v>21480</v>
-      </c>
-      <c r="I82" s="21">
-        <v>4.9853372434017551E-2</v>
-      </c>
-      <c r="J82" s="18">
-        <v>8080</v>
-      </c>
-      <c r="K82" s="21">
-        <v>3.9897039897039965E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" s="33">
-        <v>16070</v>
-      </c>
-      <c r="C83" s="21">
-        <v>3.5438144329897003E-2</v>
-      </c>
-      <c r="D83" s="33">
-        <v>3510</v>
-      </c>
-      <c r="E83" s="21">
-        <v>4.4642857142857206E-2</v>
-      </c>
-      <c r="F83" s="33">
-        <v>1640</v>
-      </c>
-      <c r="G83" s="21">
-        <v>-6.0606060606060996E-3</v>
-      </c>
-      <c r="H83" s="32">
-        <v>22240</v>
-      </c>
-      <c r="I83" s="21">
-        <v>3.5381750465549366E-2</v>
-      </c>
-      <c r="J83" s="18">
-        <v>8440</v>
-      </c>
-      <c r="K83" s="21">
-        <v>4.4554455445544594E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="33">
-        <v>17380</v>
-      </c>
-      <c r="C84" s="21">
-        <v>8.151835718730549E-2</v>
-      </c>
-      <c r="D84" s="33">
-        <v>3770</v>
-      </c>
-      <c r="E84" s="21">
-        <v>7.4074074074074181E-2</v>
-      </c>
-      <c r="F84" s="33">
-        <v>1610</v>
-      </c>
-      <c r="G84" s="21">
-        <v>-1.8292682926829285E-2</v>
-      </c>
-      <c r="H84" s="32">
-        <v>23860</v>
-      </c>
-      <c r="I84" s="21">
-        <v>7.2841726618705138E-2</v>
-      </c>
-      <c r="J84" s="32">
-        <v>9030</v>
-      </c>
-      <c r="K84" s="21">
-        <v>6.9905213270142097E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="33">
-        <v>18060</v>
-      </c>
-      <c r="C85" s="21">
-        <v>3.9125431530494748E-2</v>
-      </c>
-      <c r="D85" s="33">
-        <v>4100</v>
-      </c>
-      <c r="E85" s="21">
-        <v>8.7533156498673659E-2</v>
-      </c>
-      <c r="F85" s="33">
-        <v>1670</v>
-      </c>
-      <c r="G85" s="21">
-        <v>3.7267080745341685E-2</v>
-      </c>
-      <c r="H85" s="32">
-        <v>24870</v>
-      </c>
-      <c r="I85" s="21">
-        <v>4.2330259849119756E-2</v>
-      </c>
-      <c r="J85" s="32">
-        <v>9670</v>
-      </c>
-      <c r="K85" s="21">
-        <v>7.0874861572536085E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="33">
-        <v>18950</v>
-      </c>
-      <c r="C86" s="21">
-        <v>4.9280177187153829E-2</v>
-      </c>
-      <c r="D86" s="33">
-        <v>4650</v>
-      </c>
-      <c r="E86" s="21">
-        <v>0.13414634146341453</v>
-      </c>
-      <c r="F86" s="33">
-        <v>1910</v>
-      </c>
-      <c r="G86" s="21">
-        <v>0.14371257485029942</v>
-      </c>
-      <c r="H86" s="32">
-        <v>26060</v>
-      </c>
-      <c r="I86" s="21">
-        <v>4.7848813831925963E-2</v>
-      </c>
-      <c r="J86" s="32">
-        <v>10530</v>
-      </c>
-      <c r="K86" s="21">
-        <v>8.8934850051706205E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B87" s="33">
-        <v>20050</v>
-      </c>
-      <c r="C87" s="21">
-        <v>5.8047493403693862E-2</v>
-      </c>
-      <c r="D87" s="33">
-        <v>5130</v>
-      </c>
-      <c r="E87" s="21">
-        <v>0.10322580645161294</v>
-      </c>
-      <c r="F87" s="33">
-        <v>2080</v>
-      </c>
-      <c r="G87" s="21">
-        <v>8.9005235602094279E-2</v>
-      </c>
-      <c r="H87" s="32">
-        <v>27470</v>
-      </c>
-      <c r="I87" s="21">
-        <v>5.4105909439754463E-2</v>
-      </c>
-      <c r="J87" s="18">
-        <v>11380</v>
-      </c>
-      <c r="K87" s="21">
-        <v>8.0721747388414089E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" s="33">
-        <v>20980</v>
-      </c>
-      <c r="C88" s="21">
-        <v>4.6384039900249308E-2</v>
-      </c>
-      <c r="D88" s="33">
-        <v>5490</v>
-      </c>
-      <c r="E88" s="21">
-        <v>7.0175438596491224E-2</v>
-      </c>
-      <c r="F88" s="33">
-        <v>2180</v>
-      </c>
-      <c r="G88" s="21">
-        <v>4.8076923076923128E-2</v>
-      </c>
-      <c r="H88" s="32">
-        <v>28740</v>
-      </c>
-      <c r="I88" s="21">
-        <v>4.623225336730985E-2</v>
-      </c>
-      <c r="J88" s="32">
-        <v>12120</v>
-      </c>
-      <c r="K88" s="21">
-        <v>6.5026362038664409E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="33">
-        <v>22310</v>
-      </c>
-      <c r="C89" s="21">
-        <v>6.3393708293612905E-2</v>
-      </c>
-      <c r="D89" s="33">
-        <v>5800</v>
-      </c>
-      <c r="E89" s="21">
-        <v>5.6466302367941701E-2</v>
-      </c>
-      <c r="F89" s="33">
-        <v>2270</v>
-      </c>
-      <c r="G89" s="21">
-        <v>4.1284403669724856E-2</v>
-      </c>
-      <c r="H89" s="32">
-        <v>30500</v>
-      </c>
-      <c r="I89" s="21">
-        <v>6.1238691718858762E-2</v>
-      </c>
-      <c r="J89" s="32">
-        <v>12840</v>
-      </c>
-      <c r="K89" s="21">
-        <v>5.9405940594059459E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="35">
-        <v>23420</v>
-      </c>
-      <c r="C90" s="21">
-        <v>4.9753473778574531E-2</v>
-      </c>
-      <c r="D90" s="35">
-        <v>6190</v>
-      </c>
-      <c r="E90" s="21">
-        <v>6.7241379310344795E-2</v>
-      </c>
-      <c r="F90" s="35">
-        <v>2290</v>
-      </c>
-      <c r="G90" s="21">
-        <v>8.8105726872247381E-3</v>
-      </c>
-      <c r="H90" s="32">
-        <v>31990</v>
-      </c>
-      <c r="I90" s="21">
-        <v>4.8852459016393457E-2</v>
-      </c>
-      <c r="J90" s="32">
-        <v>13560</v>
-      </c>
-      <c r="K90" s="21">
-        <v>5.6074766355140193E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="33">
-        <v>24820</v>
-      </c>
-      <c r="C91" s="21">
-        <v>5.977796754910325E-2</v>
-      </c>
-      <c r="D91" s="33">
-        <v>6600</v>
-      </c>
-      <c r="E91" s="21">
-        <v>6.6235864297253588E-2</v>
-      </c>
-      <c r="F91" s="33">
-        <v>2380</v>
-      </c>
-      <c r="G91" s="21">
-        <v>3.9301310043668103E-2</v>
-      </c>
-      <c r="H91" s="32">
-        <v>33800</v>
-      </c>
-      <c r="I91" s="21">
-        <v>5.6580181306658428E-2</v>
-      </c>
-      <c r="J91" s="32">
-        <v>14370</v>
-      </c>
-      <c r="K91" s="21">
-        <v>5.9734513274336321E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B92" s="33">
-        <v>25740</v>
-      </c>
-      <c r="C92" s="21">
-        <v>3.706688154713933E-2</v>
-      </c>
-      <c r="D92" s="33">
-        <v>7070</v>
-      </c>
-      <c r="E92" s="21">
-        <v>7.1212121212121282E-2</v>
-      </c>
-      <c r="F92" s="33">
-        <v>2570</v>
-      </c>
-      <c r="G92" s="21">
-        <v>7.9831932773109182E-2</v>
-      </c>
-      <c r="H92" s="32">
-        <v>35070</v>
-      </c>
-      <c r="I92" s="21">
-        <v>3.7573964497041423E-2</v>
-      </c>
-      <c r="J92" s="32">
-        <v>15240</v>
-      </c>
-      <c r="K92" s="21">
-        <v>6.0542797494780753E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="33">
-        <v>26770</v>
-      </c>
-      <c r="C93" s="21">
-        <v>4.0015540015539974E-2</v>
-      </c>
-      <c r="D93" s="33">
-        <v>7630</v>
-      </c>
-      <c r="E93" s="21">
-        <v>7.9207920792079278E-2</v>
-      </c>
-      <c r="F93" s="33">
-        <v>2740</v>
-      </c>
-      <c r="G93" s="21">
-        <v>6.6147859922178975E-2</v>
-      </c>
-      <c r="H93" s="32">
-        <v>36470</v>
-      </c>
-      <c r="I93" s="21">
-        <v>3.9920159680638667E-2</v>
-      </c>
-      <c r="J93" s="32">
-        <v>16180</v>
-      </c>
-      <c r="K93" s="21">
-        <v>6.1679790026246684E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="33">
-        <v>27880</v>
-      </c>
-      <c r="C94" s="21">
-        <v>4.1464325737766261E-2</v>
-      </c>
-      <c r="D94" s="33">
-        <v>8280</v>
-      </c>
-      <c r="E94" s="21">
-        <v>8.5190039318479682E-2</v>
-      </c>
-      <c r="F94" s="33">
-        <v>2970</v>
-      </c>
-      <c r="G94" s="21">
-        <v>8.3941605839416011E-2</v>
-      </c>
-      <c r="H94" s="32">
-        <v>37970</v>
-      </c>
-      <c r="I94" s="21">
-        <v>4.1129695640252262E-2</v>
-      </c>
-      <c r="J94" s="32">
-        <v>17160</v>
-      </c>
-      <c r="K94" s="21">
-        <v>6.0568603213844163E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="33">
-        <v>28990</v>
-      </c>
-      <c r="C95" s="21">
-        <v>3.9813486370157802E-2</v>
-      </c>
-      <c r="D95" s="33">
-        <v>8650</v>
-      </c>
-      <c r="E95" s="21">
-        <v>4.4685990338164228E-2</v>
-      </c>
-      <c r="F95" s="33">
-        <v>3150</v>
-      </c>
-      <c r="G95" s="21">
-        <v>6.0606060606060552E-2</v>
-      </c>
-      <c r="H95" s="32">
-        <v>39450</v>
-      </c>
-      <c r="I95" s="21">
-        <v>3.8978140637345282E-2</v>
-      </c>
-      <c r="J95" s="32">
-        <v>17820</v>
-      </c>
-      <c r="K95" s="21">
-        <v>3.8461538461538547E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" s="33">
-        <v>30130</v>
-      </c>
-      <c r="C96" s="21">
-        <v>3.9323904794756892E-2</v>
-      </c>
-      <c r="D96" s="33">
-        <v>8890</v>
-      </c>
-      <c r="E96" s="21">
-        <v>2.7745664739884379E-2</v>
-      </c>
-      <c r="F96" s="33">
-        <v>3240</v>
-      </c>
-      <c r="G96" s="21">
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="H96" s="32">
-        <v>40960</v>
-      </c>
-      <c r="I96" s="21">
-        <v>3.8276299112800949E-2</v>
-      </c>
-      <c r="J96" s="32">
-        <v>18380</v>
-      </c>
-      <c r="K96" s="21">
-        <v>3.1425364758698171E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97" s="33">
-        <v>31280</v>
-      </c>
-      <c r="C97" s="21">
-        <v>3.8167938931297662E-2</v>
-      </c>
-      <c r="D97" s="33">
-        <v>9150</v>
-      </c>
-      <c r="E97" s="21">
-        <v>2.924634420697414E-2</v>
-      </c>
-      <c r="F97" s="33">
-        <v>3340</v>
-      </c>
-      <c r="G97" s="21">
-        <v>3.0864197530864113E-2</v>
-      </c>
-      <c r="H97" s="32">
-        <v>42450</v>
-      </c>
-      <c r="I97" s="21">
-        <v>3.6376953125E-2</v>
-      </c>
-      <c r="J97" s="32">
-        <v>18930</v>
-      </c>
-      <c r="K97" s="21">
-        <v>2.992383025027201E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="33">
-        <v>32340</v>
-      </c>
-      <c r="C98" s="21">
-        <v>3.3887468030690426E-2</v>
-      </c>
-      <c r="D98" s="33">
-        <v>9430</v>
-      </c>
-      <c r="E98" s="21">
-        <v>3.0601092896174853E-2</v>
-      </c>
-      <c r="F98" s="33">
-        <v>3400</v>
-      </c>
-      <c r="G98" s="21">
-        <v>1.7964071856287456E-2</v>
-      </c>
-      <c r="H98" s="32">
-        <v>43880</v>
-      </c>
-      <c r="I98" s="21">
-        <v>3.368669022379267E-2</v>
-      </c>
-      <c r="J98" s="32">
-        <v>19570</v>
-      </c>
-      <c r="K98" s="21">
-        <v>3.3808769149498152E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" s="33">
-        <v>33500</v>
-      </c>
-      <c r="C99" s="21">
-        <v>3.5868893011750114E-2</v>
-      </c>
-      <c r="D99" s="33">
-        <v>9670</v>
-      </c>
-      <c r="E99" s="21">
-        <v>2.5450689289501671E-2</v>
-      </c>
-      <c r="F99" s="33">
-        <v>3460</v>
-      </c>
-      <c r="G99" s="21">
-        <v>1.7647058823529349E-2</v>
-      </c>
-      <c r="H99" s="32">
-        <v>45350</v>
-      </c>
-      <c r="I99" s="21">
-        <v>3.3500455788514127E-2</v>
-      </c>
-      <c r="J99" s="32">
-        <v>20150</v>
-      </c>
-      <c r="K99" s="21">
-        <v>2.9637199795605529E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B100" s="33">
-        <v>34700</v>
-      </c>
-      <c r="C100" s="21">
-        <v>3.5820895522387985E-2</v>
-      </c>
-      <c r="D100" s="33">
-        <v>9980</v>
-      </c>
-      <c r="E100" s="21">
-        <v>3.2057911065149991E-2</v>
-      </c>
-      <c r="F100" s="33">
-        <v>3560</v>
-      </c>
-      <c r="G100" s="21">
-        <v>2.8901734104046284E-2</v>
-      </c>
-      <c r="H100" s="18">
-        <v>46990</v>
-      </c>
-      <c r="I100" s="21">
-        <v>3.6163175303197459E-2</v>
-      </c>
-      <c r="J100" s="18">
-        <v>20790</v>
-      </c>
-      <c r="K100" s="21">
-        <v>3.1761786600496222E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" s="33">
-        <v>35830</v>
-      </c>
-      <c r="C101" s="21">
-        <v>3.2564841498559094E-2</v>
-      </c>
-      <c r="D101" s="33">
-        <v>10230</v>
-      </c>
-      <c r="E101" s="21">
-        <v>2.5050100200400882E-2</v>
-      </c>
-      <c r="F101" s="33">
-        <v>3660</v>
-      </c>
-      <c r="G101" s="21">
-        <v>2.8089887640449396E-2</v>
-      </c>
-      <c r="H101" s="18">
-        <v>48510</v>
-      </c>
-      <c r="I101" s="21">
-        <v>3.2347307937859116E-2</v>
-      </c>
-      <c r="J101" s="18">
-        <v>21370</v>
-      </c>
-      <c r="K101" s="21">
-        <v>2.7898027898027866E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37" t="s">
+    <row r="54" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
     </row>
-    <row r="103" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="20"/>
     </row>
-    <row r="104" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F56" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="42"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F57" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F106" s="43"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F58" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F107" s="43"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F59" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F108" s="43"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F60" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F109" s="43"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F61" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F110" s="43"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F62" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F111" s="43"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F63" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F112" s="43"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F64" s="21"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F113" s="43"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F65" s="21"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F114" s="43"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F66" s="21"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F115" s="43"/>
+    <row r="67" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="18"/>
+      <c r="B67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="J67" s="21"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F116" s="43"/>
+    <row r="68" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="18"/>
+      <c r="B68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="J68" s="21"/>
     </row>
-    <row r="117" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="40"/>
-      <c r="B117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="J117" s="43"/>
+    <row r="69" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="18"/>
+      <c r="B69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="J69" s="21"/>
     </row>
-    <row r="118" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="40"/>
-      <c r="B118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="J118" s="43"/>
+    <row r="70" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="J70" s="21"/>
     </row>
-    <row r="119" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="40"/>
-      <c r="B119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="J119" s="43"/>
+    <row r="71" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="J71" s="21"/>
     </row>
-    <row r="120" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="40"/>
-      <c r="B120" s="43"/>
-      <c r="D120" s="43"/>
-      <c r="F120" s="43"/>
-      <c r="H120" s="43"/>
-      <c r="J120" s="43"/>
+    <row r="72" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="J72" s="21"/>
     </row>
-    <row r="121" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="40"/>
-      <c r="B121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="J121" s="43"/>
+    <row r="73" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="J73" s="21"/>
     </row>
-    <row r="122" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="40"/>
-      <c r="B122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="J122" s="43"/>
+    <row r="74" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="18"/>
+      <c r="B74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="J74" s="21"/>
     </row>
-    <row r="123" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="40"/>
-      <c r="B123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="J123" s="43"/>
+    <row r="75" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="18"/>
+      <c r="B75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="J75" s="21"/>
     </row>
-    <row r="124" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="40"/>
-      <c r="B124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="J124" s="43"/>
+    <row r="76" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="18"/>
+      <c r="B76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="J76" s="21"/>
     </row>
-    <row r="125" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="40"/>
-      <c r="B125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="J125" s="43"/>
+    <row r="77" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="J77" s="21"/>
     </row>
-    <row r="126" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="40"/>
-      <c r="B126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="J126" s="43"/>
+    <row r="78" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="J78" s="21"/>
     </row>
-    <row r="127" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="40"/>
-      <c r="B127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="F127" s="43"/>
-      <c r="H127" s="43"/>
-      <c r="J127" s="43"/>
+    <row r="79" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="J79" s="21"/>
     </row>
-    <row r="128" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="40"/>
-      <c r="B128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="J128" s="43"/>
+    <row r="80" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="J80" s="21"/>
     </row>
-    <row r="129" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="40"/>
-      <c r="B129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="J129" s="43"/>
+    <row r="81" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="18"/>
+      <c r="B81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="J81" s="21"/>
     </row>
-    <row r="130" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="40"/>
-      <c r="B130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="H130" s="43"/>
-      <c r="J130" s="43"/>
+    <row r="82" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="18"/>
+      <c r="B82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="J82" s="21"/>
     </row>
-    <row r="131" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="40"/>
-      <c r="B131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="H131" s="43"/>
-      <c r="J131" s="43"/>
+    <row r="83" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="18"/>
+      <c r="B83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="J83" s="21"/>
     </row>
-    <row r="132" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="40"/>
-      <c r="B132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="J132" s="43"/>
+    <row r="84" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="18"/>
+      <c r="B84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="J84" s="21"/>
     </row>
-    <row r="133" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="40"/>
-      <c r="B133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="H133" s="43"/>
-      <c r="J133" s="43"/>
+    <row r="85" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="18"/>
+      <c r="B85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="J85" s="21"/>
     </row>
-    <row r="134" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="40"/>
-      <c r="B134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="H134" s="43"/>
-      <c r="J134" s="43"/>
+    <row r="86" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="18"/>
+      <c r="B86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="J86" s="21"/>
     </row>
-    <row r="135" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="40"/>
-      <c r="B135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="J135" s="43"/>
+    <row r="87" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="18"/>
+      <c r="B87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="J87" s="21"/>
     </row>
-    <row r="136" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="40"/>
-      <c r="B136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="H136" s="43"/>
-      <c r="J136" s="43"/>
+    <row r="88" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="18"/>
+      <c r="B88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="J88" s="21"/>
     </row>
-    <row r="137" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="40"/>
-      <c r="B137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="H137" s="43"/>
-      <c r="J137" s="43"/>
+    <row r="89" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="18"/>
+      <c r="B89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="J89" s="21"/>
     </row>
-    <row r="138" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="40"/>
-      <c r="B138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="F138" s="43"/>
-      <c r="H138" s="43"/>
-      <c r="J138" s="43"/>
+    <row r="90" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="18"/>
+      <c r="B90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="J90" s="21"/>
     </row>
-    <row r="139" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="40"/>
-      <c r="B139" s="43"/>
-      <c r="D139" s="43"/>
-      <c r="F139" s="43"/>
-      <c r="H139" s="43"/>
-      <c r="J139" s="43"/>
+    <row r="91" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="18"/>
+      <c r="B91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="J91" s="21"/>
     </row>
-    <row r="140" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="40"/>
-      <c r="B140" s="43"/>
-      <c r="D140" s="43"/>
-      <c r="F140" s="43"/>
-      <c r="H140" s="43"/>
-      <c r="J140" s="43"/>
+    <row r="92" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="J92" s="21"/>
     </row>
-    <row r="141" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="40"/>
-      <c r="B141" s="43"/>
-      <c r="D141" s="43"/>
-      <c r="F141" s="43"/>
-      <c r="H141" s="43"/>
-      <c r="J141" s="43"/>
+    <row r="93" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="J93" s="21"/>
     </row>
-    <row r="142" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="40"/>
-      <c r="B142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="J142" s="43"/>
+    <row r="94" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="18"/>
+      <c r="B94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="J94" s="21"/>
     </row>
-    <row r="143" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="40"/>
-      <c r="B143" s="43"/>
-      <c r="D143" s="43"/>
-      <c r="F143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="J143" s="43"/>
+    <row r="95" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="18"/>
+      <c r="B95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="J95" s="21"/>
     </row>
-    <row r="144" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="40"/>
-      <c r="B144" s="43"/>
-      <c r="D144" s="43"/>
-      <c r="F144" s="43"/>
-      <c r="H144" s="43"/>
-      <c r="J144" s="43"/>
+    <row r="96" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="18"/>
+      <c r="B96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="J96" s="21"/>
     </row>
-    <row r="145" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="40"/>
-      <c r="B145" s="43"/>
-      <c r="D145" s="43"/>
-      <c r="F145" s="43"/>
-      <c r="H145" s="43"/>
-      <c r="J145" s="43"/>
+    <row r="97" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="18"/>
+      <c r="B97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="J97" s="21"/>
     </row>
-    <row r="146" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="40"/>
-      <c r="B146" s="43"/>
-      <c r="D146" s="43"/>
-      <c r="F146" s="43"/>
-      <c r="H146" s="43"/>
-      <c r="J146" s="43"/>
+    <row r="98" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="18"/>
+      <c r="B98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="J98" s="21"/>
     </row>
-    <row r="147" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="40"/>
-      <c r="B147" s="43"/>
-      <c r="D147" s="43"/>
-      <c r="F147" s="43"/>
-      <c r="H147" s="43"/>
-      <c r="J147" s="43"/>
+    <row r="99" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="J99" s="21"/>
     </row>
-    <row r="148" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="40"/>
-      <c r="B148" s="43"/>
-      <c r="D148" s="43"/>
-      <c r="F148" s="43"/>
-      <c r="H148" s="43"/>
-      <c r="J148" s="43"/>
+    <row r="100" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="J100" s="21"/>
     </row>
-    <row r="149" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="40"/>
-      <c r="B149" s="43"/>
-      <c r="D149" s="43"/>
-      <c r="F149" s="43"/>
-      <c r="H149" s="43"/>
-      <c r="J149" s="43"/>
+    <row r="101" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="J101" s="21"/>
     </row>
-    <row r="150" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="40"/>
-      <c r="B150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="F150" s="43"/>
-      <c r="H150" s="43"/>
-      <c r="J150" s="43"/>
+    <row r="102" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="J102" s="21"/>
     </row>
-    <row r="151" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="40"/>
-      <c r="B151" s="43"/>
-      <c r="D151" s="43"/>
-      <c r="F151" s="43"/>
-      <c r="H151" s="43"/>
-      <c r="J151" s="43"/>
+    <row r="103" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="J103" s="21"/>
     </row>
-    <row r="152" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="40"/>
-      <c r="B152" s="43"/>
-      <c r="D152" s="43"/>
-      <c r="F152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="J152" s="43"/>
+    <row r="104" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="J104" s="21"/>
     </row>
-    <row r="153" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="40"/>
-      <c r="B153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="J153" s="43"/>
+    <row r="105" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="18"/>
+      <c r="B105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="J105" s="21"/>
     </row>
-    <row r="154" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="40"/>
-      <c r="B154" s="43"/>
-      <c r="D154" s="43"/>
-      <c r="F154" s="43"/>
-      <c r="H154" s="43"/>
-      <c r="J154" s="43"/>
+    <row r="106" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="18"/>
+      <c r="B106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="J106" s="21"/>
     </row>
-    <row r="155" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="40"/>
-      <c r="B155" s="43"/>
-      <c r="D155" s="43"/>
-      <c r="F155" s="43"/>
-      <c r="H155" s="43"/>
-      <c r="J155" s="43"/>
-    </row>
-    <row r="156" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="40"/>
-      <c r="B156" s="43"/>
-      <c r="D156" s="43"/>
-      <c r="F156" s="43"/>
-      <c r="H156" s="43"/>
-      <c r="J156" s="43"/>
-    </row>
-    <row r="157" spans="1:10" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="40"/>
-      <c r="B157" s="43"/>
-      <c r="D157" s="43"/>
-      <c r="F157" s="43"/>
-      <c r="H157" s="43"/>
-      <c r="J157" s="43"/>
+    <row r="107" spans="1:10" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="J107" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A104:K104"/>
+  <mergeCells count="6">
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A52:K52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
